--- a/data/excel_files/Item Number Logic.xlsx
+++ b/data/excel_files/Item Number Logic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dsi.local\APAC\AU\Newcastle\Sales\Sales\1. Demand Management\7. S&amp;OP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sufarhansudaryo/Documents/Work/semantic-automapper/data/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D9D0AE-BBF7-4ED0-BF54-DC808F84B203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E56D6CC-8752-994F-ADDD-9A33BACABA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" xr2:uid="{D1A653E6-C4F5-499B-9079-4C9FB05C7B38}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="657" activeTab="13" xr2:uid="{D1A653E6-C4F5-499B-9079-4C9FB05C7B38}"/>
   </bookViews>
   <sheets>
     <sheet name="Bolt Matrix" sheetId="48" r:id="rId1"/>
@@ -2657,6 +2657,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> = Glass Reinforced Plastic                                                               </t>
     </r>
@@ -2665,6 +2666,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> P</t>
     </r>
@@ -2672,6 +2674,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> = Plastic</t>
     </r>
@@ -9917,7 +9920,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -10084,11 +10087,7 @@
     <font>
       <sz val="9"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -11577,6 +11576,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -11607,87 +11687,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -11733,8 +11732,11 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -11805,8 +11807,11 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -11882,12 +11887,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -11933,14 +11932,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11956,12 +11961,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -12338,23 +12337,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B469B2-F51C-420B-B9E5-B60C7B4C203C}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" customWidth="1"/>
-    <col min="9" max="9" width="45.7109375" customWidth="1"/>
-    <col min="10" max="10" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="5.5" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="45.6640625" customWidth="1"/>
+    <col min="10" max="10" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
       <c r="C1" s="11" t="s">
@@ -12374,7 +12375,7 @@
       <c r="O1" s="12"/>
       <c r="P1" s="14"/>
     </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="102" t="s">
@@ -12394,7 +12395,7 @@
       <c r="O2" s="19"/>
       <c r="P2" s="20"/>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="102" t="s">
@@ -12414,7 +12415,7 @@
       <c r="O3" s="19"/>
       <c r="P3" s="20"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="102" t="s">
@@ -12434,7 +12435,7 @@
       <c r="O4" s="19"/>
       <c r="P4" s="20"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="21"/>
       <c r="C5" s="103"/>
@@ -12454,7 +12455,7 @@
       <c r="O5" s="24"/>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="21"/>
       <c r="C6" s="29"/>
@@ -12474,7 +12475,7 @@
       <c r="O6" s="32"/>
       <c r="P6" s="33"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="21"/>
       <c r="C7" s="29"/>
@@ -12486,7 +12487,7 @@
       <c r="O7" s="24"/>
       <c r="P7" s="25"/>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="21"/>
       <c r="C8" s="29"/>
@@ -12498,7 +12499,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="35"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="331" t="s">
         <v>8</v>
@@ -12512,7 +12513,7 @@
       <c r="O9" s="27"/>
       <c r="P9" s="28"/>
     </row>
-    <row r="10" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="332"/>
       <c r="C10" s="29"/>
@@ -12534,7 +12535,7 @@
       <c r="O10" s="187"/>
       <c r="P10" s="188"/>
     </row>
-    <row r="11" spans="1:16" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="332"/>
       <c r="C11" s="29"/>
@@ -12556,7 +12557,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="35"/>
     </row>
-    <row r="12" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="332"/>
       <c r="C12" s="332"/>
@@ -12578,7 +12579,7 @@
       <c r="O12" s="184"/>
       <c r="P12" s="185"/>
     </row>
-    <row r="13" spans="1:16" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="45" t="s">
         <v>16</v>
       </c>
@@ -12604,8 +12605,8 @@
       <c r="O13" s="52"/>
       <c r="P13" s="53"/>
     </row>
-    <row r="14" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -12632,7 +12633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
@@ -12661,7 +12662,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -12688,7 +12689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>38</v>
       </c>
@@ -12715,7 +12716,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>42</v>
       </c>
@@ -12742,7 +12743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>46</v>
       </c>
@@ -12769,7 +12770,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>50</v>
       </c>
@@ -12796,7 +12797,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>55</v>
       </c>
@@ -12823,7 +12824,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>60</v>
       </c>
@@ -12850,7 +12851,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -12875,7 +12876,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>70</v>
       </c>
@@ -12903,7 +12904,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>76</v>
       </c>
@@ -12930,7 +12931,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -12957,7 +12958,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>86</v>
       </c>
@@ -12986,7 +12987,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>92</v>
       </c>
@@ -13016,17 +13017,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -13037,7 +13038,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>100</v>
       </c>
@@ -13085,33 +13086,33 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="4" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="42.85546875" customWidth="1"/>
-    <col min="7" max="7" width="43.5703125" style="72" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="42.83203125" customWidth="1"/>
+    <col min="7" max="7" width="43.5" style="72" customWidth="1"/>
     <col min="8" max="8" width="11" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="470" t="s">
         <v>776</v>
       </c>
       <c r="B1" s="472" t="s">
         <v>777</v>
       </c>
-      <c r="C1" s="431" t="s">
+      <c r="C1" s="433" t="s">
         <v>778</v>
       </c>
       <c r="D1" s="466" t="s">
@@ -13121,10 +13122,10 @@
       <c r="F1" s="467"/>
       <c r="G1" s="467"/>
     </row>
-    <row r="2" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="470"/>
-      <c r="B2" s="428"/>
-      <c r="C2" s="432"/>
+      <c r="B2" s="405"/>
+      <c r="C2" s="434"/>
       <c r="D2" s="475" t="s">
         <v>780</v>
       </c>
@@ -13135,12 +13136,12 @@
       <c r="G2" s="465"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="470"/>
-      <c r="B3" s="428"/>
-      <c r="C3" s="432"/>
+      <c r="B3" s="405"/>
+      <c r="C3" s="434"/>
       <c r="D3" s="476"/>
-      <c r="E3" s="431" t="s">
+      <c r="E3" s="433" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="468" t="s">
@@ -13149,7 +13150,7 @@
       <c r="G3" s="469"/>
       <c r="L3"/>
     </row>
-    <row r="4" spans="1:12" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="471"/>
       <c r="B4" s="473"/>
       <c r="C4" s="474"/>
@@ -13167,7 +13168,7 @@
       <c r="K4" s="107"/>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="101" t="s">
         <v>784</v>
       </c>
@@ -13189,7 +13190,7 @@
       <c r="G5" s="130"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="101" t="s">
         <v>789</v>
       </c>
@@ -13213,7 +13214,7 @@
       </c>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="101" t="s">
         <v>793</v>
       </c>
@@ -13237,7 +13238,7 @@
       </c>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="101" t="s">
         <v>799</v>
       </c>
@@ -13261,7 +13262,7 @@
       </c>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="101" t="s">
         <v>802</v>
       </c>
@@ -13285,7 +13286,7 @@
       </c>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="101" t="s">
         <v>805</v>
       </c>
@@ -13309,7 +13310,7 @@
       </c>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="101" t="s">
         <v>810</v>
       </c>
@@ -13333,7 +13334,7 @@
       </c>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="101" t="s">
         <v>815</v>
       </c>
@@ -13357,7 +13358,7 @@
       </c>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="101" t="s">
         <v>817</v>
       </c>
@@ -13381,7 +13382,7 @@
       </c>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="101" t="s">
         <v>820</v>
       </c>
@@ -13405,7 +13406,7 @@
       </c>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="101" t="s">
         <v>823</v>
       </c>
@@ -13429,7 +13430,7 @@
       </c>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="101" t="s">
         <v>826</v>
       </c>
@@ -13453,7 +13454,7 @@
       </c>
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="101" t="s">
         <v>829</v>
       </c>
@@ -13480,7 +13481,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="101" t="s">
         <v>832</v>
       </c>
@@ -13507,7 +13508,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="101" t="s">
         <v>834</v>
       </c>
@@ -13534,7 +13535,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="101" t="s">
         <v>839</v>
       </c>
@@ -13561,7 +13562,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="101" t="s">
         <v>844</v>
       </c>
@@ -13588,7 +13589,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="101" t="s">
         <v>847</v>
       </c>
@@ -13615,7 +13616,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="101" t="s">
         <v>851</v>
       </c>
@@ -13642,7 +13643,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="101" t="s">
         <v>855</v>
       </c>
@@ -13696,49 +13697,49 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I6"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="5" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="37.7109375" style="72" customWidth="1"/>
-    <col min="9" max="9" width="34.140625" style="72" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" style="72" customWidth="1"/>
+    <col min="9" max="9" width="34.1640625" style="72" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="478" t="s">
+    <row r="1" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="480" t="s">
         <v>776</v>
       </c>
-      <c r="B1" s="428" t="s">
+      <c r="B1" s="405" t="s">
         <v>777</v>
       </c>
-      <c r="C1" s="431" t="s">
+      <c r="C1" s="433" t="s">
         <v>860</v>
       </c>
-      <c r="D1" s="438" t="s">
+      <c r="D1" s="440" t="s">
         <v>861</v>
       </c>
-      <c r="E1" s="439"/>
-      <c r="F1" s="439"/>
-      <c r="G1" s="439"/>
-      <c r="H1" s="439"/>
-      <c r="I1" s="439"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
+      <c r="H1" s="441"/>
+      <c r="I1" s="441"/>
       <c r="J1" s="131"/>
     </row>
-    <row r="2" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="478"/>
-      <c r="B2" s="428"/>
-      <c r="C2" s="432"/>
+    <row r="2" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="480"/>
+      <c r="B2" s="405"/>
+      <c r="C2" s="434"/>
       <c r="D2" s="475" t="s">
         <v>862</v>
       </c>
@@ -13750,12 +13751,12 @@
       <c r="H2" s="464"/>
       <c r="I2" s="465"/>
     </row>
-    <row r="3" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="478"/>
-      <c r="B3" s="428"/>
-      <c r="C3" s="432"/>
+    <row r="3" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="480"/>
+      <c r="B3" s="405"/>
+      <c r="C3" s="434"/>
       <c r="D3" s="476"/>
-      <c r="E3" s="431" t="s">
+      <c r="E3" s="433" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="468" t="s">
@@ -13765,36 +13766,36 @@
       <c r="H3" s="467"/>
       <c r="I3" s="469"/>
     </row>
-    <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="478"/>
-      <c r="B4" s="428"/>
-      <c r="C4" s="432"/>
+    <row r="4" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="480"/>
+      <c r="B4" s="405"/>
+      <c r="C4" s="434"/>
       <c r="D4" s="476"/>
-      <c r="E4" s="432"/>
+      <c r="E4" s="434"/>
       <c r="F4" s="475" t="s">
         <v>865</v>
       </c>
-      <c r="G4" s="480" t="s">
+      <c r="G4" s="479" t="s">
         <v>866</v>
       </c>
       <c r="H4" s="464"/>
       <c r="I4" s="465"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="478"/>
-      <c r="B5" s="428"/>
-      <c r="C5" s="432"/>
+    <row r="5" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="480"/>
+      <c r="B5" s="405"/>
+      <c r="C5" s="434"/>
       <c r="D5" s="476"/>
-      <c r="E5" s="432"/>
+      <c r="E5" s="434"/>
       <c r="F5" s="476"/>
       <c r="G5" s="319"/>
       <c r="H5" s="466" t="s">
         <v>867</v>
       </c>
-      <c r="I5" s="479"/>
-    </row>
-    <row r="6" spans="1:13" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="478"/>
+      <c r="I5" s="478"/>
+    </row>
+    <row r="6" spans="1:13" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="480"/>
       <c r="B6" s="473"/>
       <c r="C6" s="474"/>
       <c r="D6" s="477"/>
@@ -13814,7 +13815,7 @@
       <c r="L6" s="107"/>
       <c r="M6" s="107"/>
     </row>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="134" t="s">
         <v>868</v>
       </c>
@@ -13830,7 +13831,7 @@
       <c r="L7" s="107"/>
       <c r="M7" s="107"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="101" t="s">
         <v>869</v>
       </c>
@@ -13853,7 +13854,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="101" t="s">
         <v>874</v>
       </c>
@@ -13878,7 +13879,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="101" t="s">
         <v>876</v>
       </c>
@@ -13903,7 +13904,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="101" t="s">
         <v>878</v>
       </c>
@@ -13924,7 +13925,7 @@
       </c>
       <c r="I11" s="130"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="101" t="s">
         <v>881</v>
       </c>
@@ -13947,7 +13948,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="101" t="s">
         <v>882</v>
       </c>
@@ -13970,7 +13971,7 @@
       </c>
       <c r="I13" s="130"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="101"/>
       <c r="B14" s="73"/>
       <c r="C14" s="73"/>
@@ -13981,7 +13982,7 @@
       <c r="H14" s="130"/>
       <c r="I14" s="130"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="135" t="s">
         <v>885</v>
       </c>
@@ -13994,7 +13995,7 @@
       <c r="H15" s="130"/>
       <c r="I15" s="130"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="323" t="s">
         <v>886</v>
       </c>
@@ -14015,7 +14016,7 @@
       </c>
       <c r="I16" s="130"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="101" t="s">
         <v>890</v>
       </c>
@@ -14038,7 +14039,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="101" t="s">
         <v>893</v>
       </c>
@@ -14061,7 +14062,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="101" t="s">
         <v>896</v>
       </c>
@@ -14082,7 +14083,7 @@
       </c>
       <c r="I19" s="130"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="101" t="s">
         <v>898</v>
       </c>
@@ -14103,7 +14104,7 @@
       </c>
       <c r="I20" s="130"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="101" t="s">
         <v>882</v>
       </c>
@@ -14126,7 +14127,7 @@
       </c>
       <c r="I21" s="130"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="101"/>
       <c r="B22" s="73"/>
       <c r="C22" s="73"/>
@@ -14137,7 +14138,7 @@
       <c r="H22" s="130"/>
       <c r="I22" s="130"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="136" t="s">
         <v>899</v>
       </c>
@@ -14150,7 +14151,7 @@
       <c r="H23" s="130"/>
       <c r="I23" s="130"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="101" t="s">
         <v>900</v>
       </c>
@@ -14175,7 +14176,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="101" t="s">
         <v>905</v>
       </c>
@@ -14198,7 +14199,7 @@
       </c>
       <c r="I25" s="130"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="101" t="s">
         <v>908</v>
       </c>
@@ -14223,7 +14224,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="101" t="s">
         <v>912</v>
       </c>
@@ -14250,7 +14251,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="101" t="s">
         <v>916</v>
       </c>
@@ -14277,7 +14278,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="101" t="s">
         <v>919</v>
       </c>
@@ -14304,7 +14305,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="101" t="s">
         <v>921</v>
       </c>
@@ -14331,7 +14332,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="101"/>
       <c r="B31" s="73"/>
       <c r="C31" s="73"/>
@@ -14342,7 +14343,7 @@
       <c r="H31" s="130"/>
       <c r="I31" s="130"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="136" t="s">
         <v>923</v>
       </c>
@@ -14355,7 +14356,7 @@
       <c r="H32" s="130"/>
       <c r="I32" s="130"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="133" t="s">
         <v>924</v>
       </c>
@@ -14378,7 +14379,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="101" t="s">
         <v>927</v>
       </c>
@@ -14403,7 +14404,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="101" t="s">
         <v>931</v>
       </c>
@@ -14426,7 +14427,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="101" t="s">
         <v>934</v>
       </c>
@@ -14451,7 +14452,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="101"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -14462,7 +14463,7 @@
       <c r="H37" s="130"/>
       <c r="I37" s="130"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="136" t="s">
         <v>936</v>
       </c>
@@ -14476,7 +14477,7 @@
       <c r="I38" s="130"/>
       <c r="K38" s="72"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="101" t="s">
         <v>937</v>
       </c>
@@ -14497,7 +14498,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="101" t="s">
         <v>941</v>
       </c>
@@ -14522,7 +14523,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="101" t="s">
         <v>943</v>
       </c>
@@ -14543,7 +14544,7 @@
       </c>
       <c r="I41" s="130"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="133" t="s">
         <v>945</v>
       </c>
@@ -14564,7 +14565,7 @@
       </c>
       <c r="I42" s="130"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="101" t="s">
         <v>948</v>
       </c>
@@ -14587,7 +14588,7 @@
       </c>
       <c r="I43" s="130"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="101" t="s">
         <v>950</v>
       </c>
@@ -14610,7 +14611,7 @@
       </c>
       <c r="I44" s="130"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="101" t="s">
         <v>954</v>
       </c>
@@ -14635,17 +14636,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="C1:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E3:E6"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="F4:F6"/>
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="C1:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E3:E6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14661,51 +14662,51 @@
   <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="C11" sqref="C11:C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="37.83203125" customWidth="1"/>
     <col min="12" max="12" width="49" customWidth="1"/>
-    <col min="14" max="14" width="24.42578125" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" customWidth="1"/>
+    <col min="14" max="14" width="24.5" customWidth="1"/>
+    <col min="15" max="15" width="22.5" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="432" t="s">
+    <row r="1" spans="1:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="434" t="s">
         <v>958</v>
       </c>
-      <c r="C1" s="486" t="s">
+      <c r="C1" s="481" t="s">
         <v>959</v>
       </c>
-      <c r="D1" s="487"/>
-      <c r="E1" s="487"/>
-      <c r="F1" s="487"/>
-      <c r="G1" s="487"/>
-      <c r="H1" s="487"/>
-      <c r="I1" s="487"/>
-      <c r="J1" s="487"/>
-      <c r="K1" s="487"/>
-      <c r="L1" s="487"/>
-    </row>
-    <row r="2" spans="1:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="481" t="s">
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
+      <c r="F1" s="482"/>
+      <c r="G1" s="482"/>
+      <c r="H1" s="482"/>
+      <c r="I1" s="482"/>
+      <c r="J1" s="482"/>
+      <c r="K1" s="482"/>
+      <c r="L1" s="482"/>
+    </row>
+    <row r="2" spans="1:13" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="483" t="s">
         <v>776</v>
       </c>
-      <c r="B2" s="432"/>
+      <c r="B2" s="434"/>
       <c r="C2" s="475" t="s">
         <v>960</v>
       </c>
-      <c r="D2" s="480" t="s">
+      <c r="D2" s="479" t="s">
         <v>961</v>
       </c>
-      <c r="E2" s="480"/>
+      <c r="E2" s="479"/>
       <c r="F2" s="464"/>
       <c r="G2" s="464"/>
       <c r="H2" s="464"/>
@@ -14715,11 +14716,11 @@
       <c r="L2" s="464"/>
       <c r="M2" s="326"/>
     </row>
-    <row r="3" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="481"/>
-      <c r="B3" s="432"/>
+    <row r="3" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="483"/>
+      <c r="B3" s="434"/>
       <c r="C3" s="476"/>
-      <c r="D3" s="431" t="s">
+      <c r="D3" s="433" t="s">
         <v>962</v>
       </c>
       <c r="E3" s="466" t="s">
@@ -14731,33 +14732,33 @@
       <c r="I3" s="466"/>
       <c r="J3" s="466"/>
       <c r="K3" s="466"/>
-      <c r="L3" s="485"/>
-    </row>
-    <row r="4" spans="1:13" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="481"/>
-      <c r="B4" s="432"/>
+      <c r="L3" s="487"/>
+    </row>
+    <row r="4" spans="1:13" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="483"/>
+      <c r="B4" s="434"/>
       <c r="C4" s="476"/>
-      <c r="D4" s="432"/>
+      <c r="D4" s="434"/>
       <c r="E4" s="476" t="s">
         <v>964</v>
       </c>
-      <c r="F4" s="483" t="s">
+      <c r="F4" s="485" t="s">
         <v>965</v>
       </c>
-      <c r="G4" s="483"/>
-      <c r="H4" s="483"/>
-      <c r="I4" s="483"/>
-      <c r="J4" s="483"/>
-      <c r="K4" s="483"/>
-      <c r="L4" s="484"/>
-    </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="481"/>
-      <c r="B5" s="432"/>
+      <c r="G4" s="485"/>
+      <c r="H4" s="485"/>
+      <c r="I4" s="485"/>
+      <c r="J4" s="485"/>
+      <c r="K4" s="485"/>
+      <c r="L4" s="486"/>
+    </row>
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="483"/>
+      <c r="B5" s="434"/>
       <c r="C5" s="476"/>
-      <c r="D5" s="432"/>
+      <c r="D5" s="434"/>
       <c r="E5" s="476"/>
-      <c r="F5" s="431" t="s">
+      <c r="F5" s="433" t="s">
         <v>966</v>
       </c>
       <c r="G5" s="468" t="s">
@@ -14769,33 +14770,33 @@
       <c r="K5" s="467"/>
       <c r="L5" s="469"/>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="481"/>
-      <c r="B6" s="432"/>
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="483"/>
+      <c r="B6" s="434"/>
       <c r="C6" s="476"/>
-      <c r="D6" s="432"/>
+      <c r="D6" s="434"/>
       <c r="E6" s="476"/>
-      <c r="F6" s="432"/>
+      <c r="F6" s="434"/>
       <c r="G6" s="475" t="s">
         <v>968</v>
       </c>
-      <c r="H6" s="483" t="s">
+      <c r="H6" s="485" t="s">
         <v>969</v>
       </c>
-      <c r="I6" s="483"/>
-      <c r="J6" s="483"/>
-      <c r="K6" s="483"/>
-      <c r="L6" s="484"/>
-    </row>
-    <row r="7" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="481"/>
-      <c r="B7" s="432"/>
+      <c r="I6" s="485"/>
+      <c r="J6" s="485"/>
+      <c r="K6" s="485"/>
+      <c r="L6" s="486"/>
+    </row>
+    <row r="7" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="483"/>
+      <c r="B7" s="434"/>
       <c r="C7" s="476"/>
-      <c r="D7" s="432"/>
+      <c r="D7" s="434"/>
       <c r="E7" s="476"/>
-      <c r="F7" s="432"/>
+      <c r="F7" s="434"/>
       <c r="G7" s="476"/>
-      <c r="H7" s="431" t="s">
+      <c r="H7" s="433" t="s">
         <v>958</v>
       </c>
       <c r="I7" s="466" t="s">
@@ -14803,51 +14804,51 @@
       </c>
       <c r="J7" s="466"/>
       <c r="K7" s="466"/>
-      <c r="L7" s="485"/>
-    </row>
-    <row r="8" spans="1:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="481"/>
-      <c r="B8" s="432"/>
+      <c r="L7" s="487"/>
+    </row>
+    <row r="8" spans="1:13" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="483"/>
+      <c r="B8" s="434"/>
       <c r="C8" s="476"/>
-      <c r="D8" s="432"/>
+      <c r="D8" s="434"/>
       <c r="E8" s="476"/>
-      <c r="F8" s="432"/>
+      <c r="F8" s="434"/>
       <c r="G8" s="476"/>
-      <c r="H8" s="432"/>
+      <c r="H8" s="434"/>
       <c r="I8" s="475" t="s">
         <v>971</v>
       </c>
-      <c r="J8" s="480" t="s">
+      <c r="J8" s="479" t="s">
         <v>972</v>
       </c>
       <c r="K8" s="464"/>
       <c r="L8" s="465"/>
     </row>
-    <row r="9" spans="1:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="481"/>
-      <c r="B9" s="432"/>
+    <row r="9" spans="1:13" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="483"/>
+      <c r="B9" s="434"/>
       <c r="C9" s="476"/>
-      <c r="D9" s="432"/>
+      <c r="D9" s="434"/>
       <c r="E9" s="476"/>
-      <c r="F9" s="432"/>
+      <c r="F9" s="434"/>
       <c r="G9" s="476"/>
-      <c r="H9" s="432"/>
+      <c r="H9" s="434"/>
       <c r="I9" s="476"/>
       <c r="J9" s="319"/>
       <c r="K9" s="466" t="s">
         <v>973</v>
       </c>
-      <c r="L9" s="479"/>
-    </row>
-    <row r="10" spans="1:13" ht="78.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="482"/>
+      <c r="L9" s="478"/>
+    </row>
+    <row r="10" spans="1:13" ht="79" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="484"/>
       <c r="B10" s="474"/>
       <c r="C10" s="477"/>
       <c r="D10" s="474"/>
       <c r="E10" s="477"/>
       <c r="F10" s="474"/>
       <c r="G10" s="477"/>
-      <c r="H10" s="432"/>
+      <c r="H10" s="434"/>
       <c r="I10" s="477"/>
       <c r="J10" s="318" t="s">
         <v>285</v>
@@ -14859,7 +14860,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>974</v>
       </c>
@@ -14889,7 +14890,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>979</v>
       </c>
@@ -14903,7 +14904,7 @@
       <c r="I12" s="54"/>
       <c r="J12" s="54"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>980</v>
       </c>
@@ -14930,7 +14931,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>982</v>
       </c>
@@ -14955,7 +14956,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>984</v>
       </c>
@@ -14969,7 +14970,7 @@
       <c r="I15" s="54"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>985</v>
       </c>
@@ -14999,7 +15000,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>989</v>
       </c>
@@ -15031,7 +15032,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>993</v>
       </c>
@@ -15061,7 +15062,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>996</v>
       </c>
@@ -15093,7 +15094,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>1000</v>
       </c>
@@ -15123,7 +15124,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>1003</v>
       </c>
@@ -15157,7 +15158,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>1006</v>
       </c>
@@ -15191,7 +15192,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>1009</v>
       </c>
@@ -15206,7 +15207,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>1010</v>
       </c>
@@ -15236,7 +15237,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>1014</v>
       </c>
@@ -15264,7 +15265,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>1017</v>
       </c>
@@ -15279,7 +15280,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>1018</v>
       </c>
@@ -15307,7 +15308,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>1021</v>
       </c>
@@ -15341,7 +15342,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>1025</v>
       </c>
@@ -15356,7 +15357,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>1026</v>
       </c>
@@ -15386,7 +15387,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>1029</v>
       </c>
@@ -15416,7 +15417,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>1032</v>
       </c>
@@ -15445,7 +15446,7 @@
       </c>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>1033</v>
       </c>
@@ -15460,7 +15461,7 @@
       <c r="J33" s="54"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>1034</v>
       </c>
@@ -15492,7 +15493,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>1037</v>
       </c>
@@ -15507,7 +15508,7 @@
       <c r="J35" s="54"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>1038</v>
       </c>
@@ -15539,7 +15540,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>1042</v>
       </c>
@@ -15554,7 +15555,7 @@
       <c r="J37" s="54"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>1043</v>
       </c>
@@ -15586,7 +15587,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>1047</v>
       </c>
@@ -15601,7 +15602,7 @@
       <c r="J39" s="54"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>1048</v>
       </c>
@@ -15633,7 +15634,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -15645,7 +15646,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -15657,7 +15658,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="8"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -15669,7 +15670,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="8"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -15681,7 +15682,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -15692,7 +15693,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -15703,7 +15704,7 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -15714,7 +15715,7 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -15725,7 +15726,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -15736,7 +15737,7 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -15747,7 +15748,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -15758,7 +15759,7 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -15769,7 +15770,7 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -15780,7 +15781,7 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -15791,7 +15792,7 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -15802,7 +15803,7 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -15813,7 +15814,7 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -15824,7 +15825,7 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -15835,7 +15836,7 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -15846,7 +15847,7 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -15857,7 +15858,7 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -15868,7 +15869,7 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -15879,7 +15880,7 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -15890,7 +15891,7 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -15901,7 +15902,7 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -15912,7 +15913,7 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -15923,7 +15924,7 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -15934,7 +15935,7 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -15945,7 +15946,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -15956,7 +15957,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -15967,7 +15968,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -15978,7 +15979,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -15989,7 +15990,7 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -16000,7 +16001,7 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -16011,7 +16012,7 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -16022,7 +16023,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -16033,7 +16034,7 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -16044,7 +16045,7 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -16055,7 +16056,7 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -16066,7 +16067,7 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -16077,7 +16078,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -16088,7 +16089,7 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -16099,7 +16100,7 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -16110,7 +16111,7 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -16121,7 +16122,7 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -16132,7 +16133,7 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -16143,7 +16144,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -16154,7 +16155,7 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -16165,7 +16166,7 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -16176,7 +16177,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -16187,7 +16188,7 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -16198,7 +16199,7 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -16211,6 +16212,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="E3:L3"/>
     <mergeCell ref="B1:B10"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A2:A10"/>
@@ -16227,8 +16230,6 @@
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="J8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="E3:L3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16240,23 +16241,23 @@
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="9" max="9" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="488"/>
       <c r="B2" s="491" t="s">
         <v>1053</v>
@@ -16271,7 +16272,7 @@
       <c r="H2" s="495"/>
       <c r="I2" s="495"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="489"/>
       <c r="B3" s="492"/>
       <c r="C3" s="496" t="s">
@@ -16286,7 +16287,7 @@
       <c r="H3" s="495"/>
       <c r="I3" s="495"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="489"/>
       <c r="B4" s="492"/>
       <c r="C4" s="497"/>
@@ -16301,7 +16302,7 @@
       <c r="H4" s="495"/>
       <c r="I4" s="495"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="489"/>
       <c r="B5" s="492"/>
       <c r="C5" s="497"/>
@@ -16316,7 +16317,7 @@
       <c r="H5" s="495"/>
       <c r="I5" s="495"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="489"/>
       <c r="B6" s="492"/>
       <c r="C6" s="497"/>
@@ -16331,7 +16332,7 @@
       <c r="H6" s="502"/>
       <c r="I6" s="503"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="489"/>
       <c r="B7" s="492"/>
       <c r="C7" s="497"/>
@@ -16344,7 +16345,7 @@
       <c r="H7" s="503"/>
       <c r="I7" s="495"/>
     </row>
-    <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="490"/>
       <c r="B8" s="493"/>
       <c r="C8" s="498"/>
@@ -16359,7 +16360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="117" t="s">
         <v>1064</v>
       </c>
@@ -16372,7 +16373,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="114" t="s">
         <v>1065</v>
       </c>
@@ -16399,7 +16400,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="114" t="s">
         <v>1071</v>
       </c>
@@ -16426,7 +16427,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="114" t="s">
         <v>1078</v>
       </c>
@@ -16453,7 +16454,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="114" t="s">
         <v>1082</v>
       </c>
@@ -16480,7 +16481,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="114" t="s">
         <v>1087</v>
       </c>
@@ -16507,7 +16508,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="114" t="s">
         <v>1092</v>
       </c>
@@ -16534,7 +16535,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="114" t="s">
         <v>1096</v>
       </c>
@@ -16559,7 +16560,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="114" t="s">
         <v>1100</v>
       </c>
@@ -16586,7 +16587,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="114" t="s">
         <v>1104</v>
       </c>
@@ -16632,26 +16633,26 @@
   </sheetPr>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7:D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="5" customWidth="1"/>
     <col min="7" max="7" width="5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" style="72" customWidth="1"/>
-    <col min="9" max="9" width="43.5703125" style="72" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="41.5" style="72" customWidth="1"/>
+    <col min="9" max="9" width="43.5" style="72" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="113"/>
       <c r="B1" s="108"/>
       <c r="C1" s="144"/>
@@ -16664,7 +16665,7 @@
       <c r="H1" s="502"/>
       <c r="I1" s="503"/>
     </row>
-    <row r="2" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="114"/>
       <c r="B2" s="109"/>
       <c r="C2" s="504" t="s">
@@ -16679,7 +16680,7 @@
       <c r="H2" s="507"/>
       <c r="I2" s="508"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="114"/>
       <c r="B3" s="109"/>
       <c r="C3" s="504"/>
@@ -16694,7 +16695,7 @@
       <c r="H3" s="502"/>
       <c r="I3" s="503"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="114"/>
       <c r="B4" s="109"/>
       <c r="C4" s="504"/>
@@ -16707,7 +16708,7 @@
       <c r="H4" s="502"/>
       <c r="I4" s="503"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="114"/>
       <c r="B5" s="109"/>
       <c r="C5" s="504"/>
@@ -16718,7 +16719,7 @@
       <c r="H5" s="149"/>
       <c r="I5" s="152"/>
     </row>
-    <row r="6" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="158" t="s">
         <v>546</v>
       </c>
@@ -16746,7 +16747,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="156" t="s">
         <v>1114</v>
       </c>
@@ -16760,7 +16761,7 @@
       <c r="I7" s="156"/>
       <c r="J7" s="142"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="324" t="s">
         <v>1115</v>
       </c>
@@ -16786,7 +16787,7 @@
         <v>32176423</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="324" t="s">
         <v>1119</v>
       </c>
@@ -16813,7 +16814,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="324" t="s">
         <v>1123</v>
       </c>
@@ -16839,7 +16840,7 @@
         <v>32176423</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="324" t="s">
         <v>1124</v>
       </c>
@@ -16865,7 +16866,7 @@
         <v>32175175</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="324" t="s">
         <v>1127</v>
       </c>
@@ -16893,7 +16894,7 @@
         <v>32175175</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="324" t="s">
         <v>1130</v>
       </c>
@@ -16919,7 +16920,7 @@
         <v>32175175</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="324" t="s">
         <v>1133</v>
       </c>
@@ -16947,7 +16948,7 @@
         <v>32175175</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="324" t="s">
         <v>1135</v>
       </c>
@@ -16974,16 +16975,16 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>1137</v>
       </c>
       <c r="I17"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="324" t="s">
         <v>1138</v>
       </c>
@@ -17009,7 +17010,7 @@
         <v>32178446</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="324" t="s">
         <v>1141</v>
       </c>
@@ -17037,7 +17038,7 @@
         <v>32178446</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="324" t="s">
         <v>1143</v>
       </c>
@@ -17067,7 +17068,7 @@
         <v>32178555</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="324" t="s">
         <v>1146</v>
       </c>
@@ -17095,7 +17096,7 @@
         <v>32178555</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="324" t="s">
         <v>1148</v>
       </c>
@@ -17121,7 +17122,7 @@
         <v>32178851</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="324" t="s">
         <v>1151</v>
       </c>
@@ -17147,13 +17148,13 @@
         <v>321710181</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="114"/>
       <c r="B24" s="54"/>
       <c r="I24"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="118" t="s">
         <v>1153</v>
       </c>
@@ -17161,7 +17162,7 @@
       <c r="I25"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="324" t="s">
         <v>1154</v>
       </c>
@@ -17185,19 +17186,19 @@
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B27" s="54"/>
       <c r="D27" s="55"/>
       <c r="I27"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>1158</v>
       </c>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="324" t="s">
         <v>1159</v>
       </c>
@@ -17223,7 +17224,7 @@
         <v>32173362</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="324" t="s">
         <v>1162</v>
       </c>
@@ -17251,7 +17252,7 @@
         <v>32178310</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="324" t="s">
         <v>1165</v>
       </c>
@@ -17277,7 +17278,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="101"/>
       <c r="B32" s="73"/>
       <c r="C32" s="3"/>
@@ -17289,7 +17290,7 @@
       <c r="I32" s="101"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="324" t="s">
         <v>1167</v>
       </c>
@@ -17315,7 +17316,7 @@
         <v>32175066</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="324" t="s">
         <v>1170</v>
       </c>
@@ -17341,7 +17342,7 @@
         <v>32175676</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="101"/>
       <c r="B35" s="73"/>
       <c r="C35" s="3"/>
@@ -17353,7 +17354,7 @@
       <c r="I35" s="101"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="101"/>
       <c r="B36" s="73"/>
       <c r="C36" s="3"/>
@@ -17365,7 +17366,7 @@
       <c r="I36" s="101"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="101"/>
       <c r="B37" s="73"/>
       <c r="C37" s="3"/>
@@ -17377,11 +17378,11 @@
       <c r="I37" s="101"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="101" t="s">
         <v>1173</v>
       </c>
@@ -17407,7 +17408,7 @@
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="101" t="s">
         <v>1177</v>
       </c>
@@ -17435,7 +17436,7 @@
         <v>32178352</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="101" t="s">
         <v>1180</v>
       </c>
@@ -17463,7 +17464,7 @@
       </c>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="101" t="s">
         <v>1182</v>
       </c>
@@ -17489,7 +17490,7 @@
         <v>32178735</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="101" t="s">
         <v>1185</v>
       </c>
@@ -17515,7 +17516,7 @@
       </c>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="101" t="s">
         <v>1187</v>
       </c>
@@ -17541,7 +17542,7 @@
         <v>32178782</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="101" t="s">
         <v>1190</v>
       </c>
@@ -17567,7 +17568,7 @@
       </c>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="101" t="s">
         <v>1193</v>
       </c>
@@ -17593,7 +17594,7 @@
         <v>32178789</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="148" t="s">
         <v>1196</v>
       </c>
@@ -17644,24 +17645,24 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="41" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="36.5" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" s="72" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:9" s="72" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="90"/>
       <c r="B2" s="91"/>
       <c r="C2" s="11" t="s">
@@ -17674,7 +17675,7 @@
       <c r="H2" s="177"/>
       <c r="I2" s="178"/>
     </row>
-    <row r="3" spans="1:9" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="72" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="342"/>
       <c r="B3" s="93"/>
       <c r="C3" s="102" t="s">
@@ -17687,7 +17688,7 @@
       <c r="H3" s="179"/>
       <c r="I3" s="180"/>
     </row>
-    <row r="4" spans="1:9" s="72" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="342"/>
       <c r="B4" s="93"/>
       <c r="C4" s="102" t="s">
@@ -17700,7 +17701,7 @@
       <c r="H4" s="179"/>
       <c r="I4" s="180"/>
     </row>
-    <row r="5" spans="1:9" s="72" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="72" customFormat="1" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="343"/>
       <c r="B5" s="94"/>
       <c r="C5" s="182"/>
@@ -17713,7 +17714,7 @@
       <c r="H5" s="95"/>
       <c r="I5" s="96"/>
     </row>
-    <row r="6" spans="1:9" s="72" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="72" customFormat="1" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92"/>
       <c r="B6" s="94"/>
       <c r="C6" s="92"/>
@@ -17726,7 +17727,7 @@
       <c r="H6" s="97"/>
       <c r="I6" s="98"/>
     </row>
-    <row r="7" spans="1:9" s="72" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="72" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="92"/>
       <c r="B7" s="94"/>
       <c r="C7" s="92"/>
@@ -17737,7 +17738,7 @@
       </c>
       <c r="I7" s="96"/>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="331" t="s">
         <v>8</v>
@@ -17748,7 +17749,7 @@
       <c r="F8" s="99"/>
       <c r="I8" s="35"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="331"/>
       <c r="C9" s="29"/>
@@ -17759,7 +17760,7 @@
       <c r="H9" s="345"/>
       <c r="I9" s="346"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="332"/>
       <c r="C10" s="29"/>
@@ -17774,7 +17775,7 @@
       <c r="H10" s="81"/>
       <c r="I10" s="41"/>
     </row>
-    <row r="11" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="332"/>
       <c r="C11" s="29"/>
@@ -17787,7 +17788,7 @@
       <c r="H11" s="23"/>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="332"/>
       <c r="C12" s="334" t="s">
@@ -17800,7 +17801,7 @@
       </c>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="332"/>
       <c r="C13" s="332"/>
@@ -17811,7 +17812,7 @@
       <c r="H13" s="26"/>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:9" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
         <v>16</v>
       </c>
@@ -17828,8 +17829,8 @@
       </c>
       <c r="I14" s="53"/>
     </row>
-    <row r="15" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>111</v>
       </c>
@@ -17849,7 +17850,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -17869,7 +17870,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -17893,7 +17894,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>127</v>
       </c>
@@ -17917,7 +17918,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -17940,7 +17941,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>137</v>
       </c>
@@ -17963,7 +17964,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>140</v>
       </c>
@@ -17986,7 +17987,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -18009,21 +18010,21 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="54"/>
       <c r="E25" s="54"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="54"/>
       <c r="E28" s="54"/>
@@ -18054,105 +18055,105 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15:B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25" style="70" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="71" customWidth="1"/>
-    <col min="3" max="4" width="4.7109375" style="71" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="71" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="71" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="71" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="71" customWidth="1"/>
-    <col min="9" max="10" width="3.42578125" style="71" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="71" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" style="56" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="71" customWidth="1"/>
-    <col min="14" max="14" width="41.140625" style="56" customWidth="1"/>
-    <col min="15" max="15" width="57.85546875" style="56" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="56" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="3.140625" style="56" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="59" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" style="56" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="71" customWidth="1"/>
+    <col min="3" max="4" width="4.6640625" style="71" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="71" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="71" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="71" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" style="71" customWidth="1"/>
+    <col min="9" max="10" width="3.5" style="71" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="71" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="56" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="71" customWidth="1"/>
+    <col min="14" max="14" width="41.1640625" style="56" customWidth="1"/>
+    <col min="15" max="15" width="57.83203125" style="56" customWidth="1"/>
+    <col min="16" max="16" width="7.5" style="56" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="3.1640625" style="56" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="59" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" style="56" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="0" style="56" hidden="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="56"/>
+    <col min="21" max="16384" width="9.1640625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="368" t="s">
+    <row r="1" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="354" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="368"/>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
-      <c r="J1" s="368"/>
-      <c r="K1" s="368"/>
-      <c r="L1" s="368"/>
-      <c r="M1" s="368"/>
-      <c r="N1" s="368"/>
-      <c r="O1" s="368"/>
-      <c r="P1" s="368"/>
-      <c r="Q1" s="368"/>
-      <c r="R1" s="368"/>
-      <c r="S1" s="368"/>
-      <c r="T1" s="369"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="370" t="s">
+      <c r="B1" s="354"/>
+      <c r="C1" s="354"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
+      <c r="I1" s="354"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
+      <c r="M1" s="354"/>
+      <c r="N1" s="354"/>
+      <c r="O1" s="354"/>
+      <c r="P1" s="354"/>
+      <c r="Q1" s="354"/>
+      <c r="R1" s="354"/>
+      <c r="S1" s="354"/>
+      <c r="T1" s="355"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="372"/>
+      <c r="B2" s="356" t="s">
         <v>147</v>
       </c>
       <c r="C2" s="57"/>
-      <c r="D2" s="373" t="s">
+      <c r="D2" s="359" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="374"/>
-      <c r="F2" s="374"/>
-      <c r="G2" s="374"/>
-      <c r="H2" s="374"/>
-      <c r="I2" s="374"/>
-      <c r="J2" s="374"/>
-      <c r="K2" s="374"/>
-      <c r="L2" s="374"/>
-      <c r="M2" s="374"/>
-      <c r="N2" s="374"/>
-      <c r="O2" s="375"/>
-      <c r="P2" s="376" t="s">
+      <c r="E2" s="360"/>
+      <c r="F2" s="360"/>
+      <c r="G2" s="360"/>
+      <c r="H2" s="360"/>
+      <c r="I2" s="360"/>
+      <c r="J2" s="360"/>
+      <c r="K2" s="360"/>
+      <c r="L2" s="360"/>
+      <c r="M2" s="360"/>
+      <c r="N2" s="360"/>
+      <c r="O2" s="361"/>
+      <c r="P2" s="362" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="385"/>
-      <c r="B3" s="371"/>
+    <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="373"/>
+      <c r="B3" s="357"/>
       <c r="C3" s="57"/>
       <c r="D3" s="60"/>
-      <c r="E3" s="387" t="s">
+      <c r="E3" s="375" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="387"/>
-      <c r="G3" s="387"/>
-      <c r="H3" s="387"/>
-      <c r="I3" s="387"/>
-      <c r="J3" s="387"/>
-      <c r="K3" s="387"/>
-      <c r="L3" s="387"/>
-      <c r="M3" s="387"/>
-      <c r="N3" s="387"/>
-      <c r="O3" s="388"/>
-      <c r="P3" s="377"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="385"/>
-      <c r="B4" s="371"/>
+      <c r="F3" s="375"/>
+      <c r="G3" s="375"/>
+      <c r="H3" s="375"/>
+      <c r="I3" s="375"/>
+      <c r="J3" s="375"/>
+      <c r="K3" s="375"/>
+      <c r="L3" s="375"/>
+      <c r="M3" s="375"/>
+      <c r="N3" s="375"/>
+      <c r="O3" s="376"/>
+      <c r="P3" s="363"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="373"/>
+      <c r="B4" s="357"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="378" t="s">
+      <c r="D4" s="364" t="s">
         <v>151</v>
       </c>
       <c r="E4" s="202"/>
@@ -18168,39 +18169,39 @@
       <c r="M4" s="198"/>
       <c r="N4" s="206"/>
       <c r="O4" s="201"/>
-      <c r="P4" s="377"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="385"/>
-      <c r="B5" s="371"/>
+      <c r="P4" s="363"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="373"/>
+      <c r="B5" s="357"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="378"/>
+      <c r="D5" s="364"/>
       <c r="E5" s="203"/>
-      <c r="F5" s="357" t="s">
+      <c r="F5" s="386" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="355" t="s">
+      <c r="G5" s="384" t="s">
         <v>154</v>
       </c>
-      <c r="H5" s="355"/>
-      <c r="I5" s="355"/>
-      <c r="J5" s="355"/>
-      <c r="K5" s="355"/>
-      <c r="L5" s="355"/>
-      <c r="M5" s="355"/>
-      <c r="N5" s="355"/>
-      <c r="O5" s="356"/>
-      <c r="P5" s="377"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="386"/>
-      <c r="B6" s="371"/>
+      <c r="H5" s="384"/>
+      <c r="I5" s="384"/>
+      <c r="J5" s="384"/>
+      <c r="K5" s="384"/>
+      <c r="L5" s="384"/>
+      <c r="M5" s="384"/>
+      <c r="N5" s="384"/>
+      <c r="O5" s="385"/>
+      <c r="P5" s="363"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="374"/>
+      <c r="B6" s="357"/>
       <c r="C6" s="62"/>
-      <c r="D6" s="363"/>
-      <c r="E6" s="360" t="s">
+      <c r="D6" s="349"/>
+      <c r="E6" s="348" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="358"/>
+      <c r="F6" s="387"/>
       <c r="G6" s="203" t="s">
         <v>156</v>
       </c>
@@ -18214,21 +18215,21 @@
       <c r="M6" s="216"/>
       <c r="N6" s="217"/>
       <c r="O6" s="218"/>
-      <c r="P6" s="377"/>
+      <c r="P6" s="363"/>
       <c r="R6" s="22"/>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="382" t="s">
+    <row r="7" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="370" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="371"/>
-      <c r="C7" s="360" t="s">
+      <c r="B7" s="357"/>
+      <c r="C7" s="348" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="363"/>
-      <c r="E7" s="361"/>
-      <c r="F7" s="358"/>
-      <c r="G7" s="360" t="s">
+      <c r="D7" s="349"/>
+      <c r="E7" s="365"/>
+      <c r="F7" s="387"/>
+      <c r="G7" s="348" t="s">
         <v>160</v>
       </c>
       <c r="H7" s="213"/>
@@ -18241,17 +18242,17 @@
       <c r="M7" s="212"/>
       <c r="N7" s="208"/>
       <c r="O7" s="209"/>
-      <c r="P7" s="377"/>
-    </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="382"/>
-      <c r="B8" s="371"/>
-      <c r="C8" s="363"/>
-      <c r="D8" s="363"/>
-      <c r="E8" s="361"/>
-      <c r="F8" s="358"/>
-      <c r="G8" s="361"/>
-      <c r="H8" s="365" t="s">
+      <c r="P7" s="363"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="370"/>
+      <c r="B8" s="357"/>
+      <c r="C8" s="349"/>
+      <c r="D8" s="349"/>
+      <c r="E8" s="365"/>
+      <c r="F8" s="387"/>
+      <c r="G8" s="365"/>
+      <c r="H8" s="351" t="s">
         <v>162</v>
       </c>
       <c r="I8" s="205"/>
@@ -18263,18 +18264,18 @@
       <c r="M8" s="220"/>
       <c r="N8" s="221"/>
       <c r="O8" s="222"/>
-      <c r="P8" s="377"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="382"/>
-      <c r="B9" s="371"/>
-      <c r="C9" s="363"/>
-      <c r="D9" s="363"/>
-      <c r="E9" s="361"/>
-      <c r="F9" s="358"/>
-      <c r="G9" s="361"/>
-      <c r="H9" s="366"/>
-      <c r="I9" s="360" t="s">
+      <c r="P8" s="363"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="370"/>
+      <c r="B9" s="357"/>
+      <c r="C9" s="349"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="365"/>
+      <c r="F9" s="387"/>
+      <c r="G9" s="365"/>
+      <c r="H9" s="352"/>
+      <c r="I9" s="348" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="210"/>
@@ -18285,45 +18286,45 @@
       <c r="M9" s="212"/>
       <c r="N9" s="208"/>
       <c r="O9" s="209"/>
-      <c r="P9" s="377"/>
-    </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="382"/>
-      <c r="B10" s="371"/>
-      <c r="C10" s="363"/>
-      <c r="D10" s="363"/>
-      <c r="E10" s="361"/>
-      <c r="F10" s="358"/>
-      <c r="G10" s="361"/>
-      <c r="H10" s="366"/>
-      <c r="I10" s="361"/>
-      <c r="J10" s="365" t="s">
+      <c r="P9" s="363"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="370"/>
+      <c r="B10" s="357"/>
+      <c r="C10" s="349"/>
+      <c r="D10" s="349"/>
+      <c r="E10" s="365"/>
+      <c r="F10" s="387"/>
+      <c r="G10" s="365"/>
+      <c r="H10" s="352"/>
+      <c r="I10" s="365"/>
+      <c r="J10" s="351" t="s">
         <v>165</v>
       </c>
-      <c r="K10" s="379" t="s">
+      <c r="K10" s="367" t="s">
         <v>166</v>
       </c>
-      <c r="L10" s="348" t="s">
+      <c r="L10" s="377" t="s">
         <v>167</v>
       </c>
-      <c r="M10" s="348"/>
-      <c r="N10" s="348"/>
-      <c r="O10" s="349"/>
-      <c r="P10" s="377"/>
-    </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="382"/>
-      <c r="B11" s="371"/>
-      <c r="C11" s="363"/>
-      <c r="D11" s="363"/>
-      <c r="E11" s="361"/>
-      <c r="F11" s="358"/>
-      <c r="G11" s="361"/>
-      <c r="H11" s="366"/>
-      <c r="I11" s="361"/>
-      <c r="J11" s="366"/>
-      <c r="K11" s="380"/>
-      <c r="L11" s="350" t="s">
+      <c r="M10" s="377"/>
+      <c r="N10" s="377"/>
+      <c r="O10" s="378"/>
+      <c r="P10" s="363"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="370"/>
+      <c r="B11" s="357"/>
+      <c r="C11" s="349"/>
+      <c r="D11" s="349"/>
+      <c r="E11" s="365"/>
+      <c r="F11" s="387"/>
+      <c r="G11" s="365"/>
+      <c r="H11" s="352"/>
+      <c r="I11" s="365"/>
+      <c r="J11" s="352"/>
+      <c r="K11" s="368"/>
+      <c r="L11" s="379" t="s">
         <v>168</v>
       </c>
       <c r="M11" s="207" t="s">
@@ -18331,51 +18332,51 @@
       </c>
       <c r="N11" s="208"/>
       <c r="O11" s="209"/>
-      <c r="P11" s="377"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="382"/>
-      <c r="B12" s="371"/>
-      <c r="C12" s="363"/>
-      <c r="D12" s="363"/>
-      <c r="E12" s="361"/>
-      <c r="F12" s="358"/>
-      <c r="G12" s="361"/>
-      <c r="H12" s="366"/>
-      <c r="I12" s="361"/>
-      <c r="J12" s="366"/>
-      <c r="K12" s="380"/>
-      <c r="L12" s="351"/>
-      <c r="M12" s="353" t="s">
+      <c r="P11" s="363"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="370"/>
+      <c r="B12" s="357"/>
+      <c r="C12" s="349"/>
+      <c r="D12" s="349"/>
+      <c r="E12" s="365"/>
+      <c r="F12" s="387"/>
+      <c r="G12" s="365"/>
+      <c r="H12" s="352"/>
+      <c r="I12" s="365"/>
+      <c r="J12" s="352"/>
+      <c r="K12" s="368"/>
+      <c r="L12" s="380"/>
+      <c r="M12" s="382" t="s">
         <v>170</v>
       </c>
       <c r="N12" s="223" t="s">
         <v>171</v>
       </c>
       <c r="O12" s="222"/>
-      <c r="P12" s="377"/>
-    </row>
-    <row r="13" spans="1:20" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="383"/>
-      <c r="B13" s="372"/>
-      <c r="C13" s="364"/>
-      <c r="D13" s="364"/>
-      <c r="E13" s="362"/>
-      <c r="F13" s="359"/>
-      <c r="G13" s="362"/>
-      <c r="H13" s="367"/>
-      <c r="I13" s="362"/>
-      <c r="J13" s="367"/>
-      <c r="K13" s="381"/>
-      <c r="L13" s="352"/>
-      <c r="M13" s="354"/>
+      <c r="P12" s="363"/>
+    </row>
+    <row r="13" spans="1:20" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="371"/>
+      <c r="B13" s="358"/>
+      <c r="C13" s="350"/>
+      <c r="D13" s="350"/>
+      <c r="E13" s="366"/>
+      <c r="F13" s="388"/>
+      <c r="G13" s="366"/>
+      <c r="H13" s="353"/>
+      <c r="I13" s="366"/>
+      <c r="J13" s="353"/>
+      <c r="K13" s="369"/>
+      <c r="L13" s="381"/>
+      <c r="M13" s="383"/>
       <c r="N13" s="63" t="s">
         <v>172</v>
       </c>
       <c r="O13" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="377"/>
+      <c r="P13" s="363"/>
       <c r="Q13" s="58" t="s">
         <v>173</v>
       </c>
@@ -18389,7 +18390,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
@@ -18405,7 +18406,7 @@
       </c>
       <c r="R14" s="69"/>
     </row>
-    <row r="15" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="175" t="s">
         <v>178</v>
       </c>
@@ -18459,7 +18460,7 @@
       </c>
       <c r="T15" s="193"/>
     </row>
-    <row r="16" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="175" t="s">
         <v>190</v>
       </c>
@@ -18502,7 +18503,7 @@
       <c r="R16" s="192"/>
       <c r="T16" s="193"/>
     </row>
-    <row r="17" spans="1:20" s="176" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="176" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="175" t="s">
         <v>192</v>
       </c>
@@ -18556,7 +18557,7 @@
       </c>
       <c r="T17" s="195"/>
     </row>
-    <row r="18" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="175" t="s">
         <v>196</v>
       </c>
@@ -18606,7 +18607,7 @@
       </c>
       <c r="T18" s="193"/>
     </row>
-    <row r="19" spans="1:20" s="176" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="176" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="175" t="s">
         <v>200</v>
       </c>
@@ -18660,7 +18661,7 @@
       </c>
       <c r="T19" s="195"/>
     </row>
-    <row r="20" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="175" t="s">
         <v>204</v>
       </c>
@@ -18716,7 +18717,7 @@
       </c>
       <c r="T20" s="193"/>
     </row>
-    <row r="21" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="175" t="s">
         <v>210</v>
       </c>
@@ -18770,7 +18771,7 @@
       </c>
       <c r="T21" s="193"/>
     </row>
-    <row r="22" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="175" t="s">
         <v>215</v>
       </c>
@@ -18824,7 +18825,7 @@
       </c>
       <c r="T22" s="193"/>
     </row>
-    <row r="23" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="175" t="s">
         <v>219</v>
       </c>
@@ -18880,7 +18881,7 @@
       </c>
       <c r="T23" s="193"/>
     </row>
-    <row r="24" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="175" t="s">
         <v>223</v>
       </c>
@@ -18934,7 +18935,7 @@
       </c>
       <c r="T24" s="193"/>
     </row>
-    <row r="25" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="175" t="s">
         <v>227</v>
       </c>
@@ -18986,7 +18987,7 @@
       </c>
       <c r="T25" s="193"/>
     </row>
-    <row r="26" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="175" t="s">
         <v>231</v>
       </c>
@@ -19029,7 +19030,7 @@
       <c r="R26" s="192"/>
       <c r="T26" s="193"/>
     </row>
-    <row r="27" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="175" t="s">
         <v>235</v>
       </c>
@@ -19079,7 +19080,7 @@
       </c>
       <c r="T27" s="193"/>
     </row>
-    <row r="28" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="175" t="s">
         <v>238</v>
       </c>
@@ -19133,7 +19134,7 @@
       </c>
       <c r="T28" s="193"/>
     </row>
-    <row r="29" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="175" t="s">
         <v>241</v>
       </c>
@@ -19187,7 +19188,7 @@
       </c>
       <c r="T29" s="193"/>
     </row>
-    <row r="30" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="175" t="s">
         <v>244</v>
       </c>
@@ -19237,7 +19238,7 @@
       </c>
       <c r="T30" s="193"/>
     </row>
-    <row r="31" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="175" t="s">
         <v>247</v>
       </c>
@@ -19274,7 +19275,7 @@
       <c r="R31" s="192"/>
       <c r="T31" s="193"/>
     </row>
-    <row r="32" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="175" t="s">
         <v>252</v>
       </c>
@@ -19311,7 +19312,7 @@
       <c r="R32" s="192"/>
       <c r="T32" s="193"/>
     </row>
-    <row r="33" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="175" t="str">
         <f>CONCATENATE(B33,C33,D33,E33,G33,H33,I33,J33,K33,L33,M33)</f>
         <v>CABOLT1B500CRD</v>
@@ -19360,7 +19361,7 @@
       </c>
       <c r="T33" s="193"/>
     </row>
-    <row r="34" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="175" t="s">
         <v>258</v>
       </c>
@@ -19410,7 +19411,7 @@
       </c>
       <c r="T34" s="193"/>
     </row>
-    <row r="35" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="175" t="str">
         <f>CONCATENATE(B35,C35,D35,E35,G35,H35,I35,J35,K35,L35,M35)</f>
         <v>CABOLT1B600C</v>
@@ -19458,7 +19459,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="175" t="s">
         <v>265</v>
       </c>
@@ -19493,7 +19494,7 @@
       <c r="R36" s="192"/>
       <c r="T36" s="193"/>
     </row>
-    <row r="37" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="175" t="s">
         <v>268</v>
       </c>
@@ -19530,7 +19531,7 @@
       <c r="R37" s="192"/>
       <c r="T37" s="193"/>
     </row>
-    <row r="38" spans="1:20" s="175" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="175" t="s">
         <v>271</v>
       </c>
@@ -19561,7 +19562,7 @@
       <c r="R38" s="192"/>
       <c r="T38" s="193"/>
     </row>
-    <row r="39" spans="1:20" s="176" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="176" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="196"/>
       <c r="C39" s="196"/>
       <c r="D39" s="196"/>
@@ -19578,6 +19579,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="F5:F13"/>
+    <mergeCell ref="I9:I13"/>
     <mergeCell ref="C7:C13"/>
     <mergeCell ref="J10:J13"/>
     <mergeCell ref="A1:T1"/>
@@ -19594,10 +19599,6 @@
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="L10:O10"/>
     <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="F5:F13"/>
-    <mergeCell ref="I9:I13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19613,25 +19614,25 @@
   <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="B14" sqref="B14:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" customWidth="1"/>
-    <col min="11" max="11" width="48.7109375" customWidth="1"/>
-    <col min="13" max="13" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="5" customWidth="1"/>
+    <col min="7" max="8" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" customWidth="1"/>
+    <col min="10" max="10" width="34.5" customWidth="1"/>
+    <col min="11" max="11" width="48.6640625" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="229"/>
       <c r="B1" s="228"/>
       <c r="C1" s="228"/>
@@ -19645,7 +19646,7 @@
       <c r="K1" s="229"/>
       <c r="L1" s="229"/>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="229"/>
       <c r="B2" s="389" t="s">
         <v>272</v>
@@ -19663,7 +19664,7 @@
       <c r="K2" s="237"/>
       <c r="L2" s="229"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="229"/>
       <c r="B3" s="331"/>
       <c r="C3" s="16"/>
@@ -19679,7 +19680,7 @@
       <c r="K3" s="238"/>
       <c r="L3" s="229"/>
     </row>
-    <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="229"/>
       <c r="B4" s="332"/>
       <c r="C4" s="21"/>
@@ -19693,7 +19694,7 @@
       <c r="K4" s="239"/>
       <c r="L4" s="229"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="229"/>
       <c r="B5" s="332"/>
       <c r="C5" s="21"/>
@@ -19709,7 +19710,7 @@
       <c r="K5" s="240"/>
       <c r="L5" s="229"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="229"/>
       <c r="B6" s="332"/>
       <c r="C6" s="21"/>
@@ -19725,7 +19726,7 @@
       <c r="K6" s="239"/>
       <c r="L6" s="229"/>
     </row>
-    <row r="7" spans="1:12" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="229"/>
       <c r="B7" s="332"/>
       <c r="C7" s="331" t="s">
@@ -19739,7 +19740,7 @@
       <c r="K7" s="166"/>
       <c r="L7" s="229"/>
     </row>
-    <row r="8" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="229"/>
       <c r="B8" s="332"/>
       <c r="C8" s="332"/>
@@ -19757,7 +19758,7 @@
       <c r="K8" s="241"/>
       <c r="L8" s="229"/>
     </row>
-    <row r="9" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A9" s="229"/>
       <c r="B9" s="332"/>
       <c r="C9" s="332"/>
@@ -19775,7 +19776,7 @@
       <c r="K9" s="238"/>
       <c r="L9" s="229"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="229"/>
       <c r="B10" s="332"/>
       <c r="C10" s="332"/>
@@ -19793,7 +19794,7 @@
       <c r="K10" s="242"/>
       <c r="L10" s="229"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="229"/>
       <c r="B11" s="332"/>
       <c r="C11" s="332"/>
@@ -19811,7 +19812,7 @@
       <c r="K11" s="243"/>
       <c r="L11" s="229"/>
     </row>
-    <row r="12" spans="1:12" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="170" t="s">
         <v>284</v>
       </c>
@@ -19833,7 +19834,7 @@
       </c>
       <c r="L12" s="229"/>
     </row>
-    <row r="13" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A13" s="101"/>
       <c r="B13" s="168"/>
       <c r="C13" s="168"/>
@@ -19847,7 +19848,7 @@
       <c r="K13" s="169"/>
       <c r="L13" s="229"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="136" t="s">
         <v>286</v>
       </c>
@@ -19879,7 +19880,7 @@
       </c>
       <c r="L14" s="229"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="136" t="s">
         <v>293</v>
       </c>
@@ -19911,7 +19912,7 @@
       </c>
       <c r="L15" s="229"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="136" t="s">
         <v>298</v>
       </c>
@@ -19943,7 +19944,7 @@
       </c>
       <c r="L16" s="229"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="136" t="s">
         <v>302</v>
       </c>
@@ -19975,7 +19976,7 @@
       </c>
       <c r="L17" s="229"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="251"/>
       <c r="B18" s="252"/>
       <c r="C18" s="252"/>
@@ -19989,7 +19990,7 @@
       <c r="K18" s="254"/>
       <c r="L18" s="229"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="245"/>
       <c r="B19" s="246"/>
       <c r="C19" s="246"/>
@@ -20003,7 +20004,7 @@
       <c r="K19" s="227"/>
       <c r="L19" s="229"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="245"/>
       <c r="B20" s="246"/>
       <c r="C20" s="246"/>
@@ -20017,7 +20018,7 @@
       <c r="K20" s="227"/>
       <c r="L20" s="229"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="245"/>
       <c r="B21" s="246"/>
       <c r="C21" s="246"/>
@@ -20031,7 +20032,7 @@
       <c r="K21" s="227"/>
       <c r="L21" s="229"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="245"/>
       <c r="B22" s="246"/>
       <c r="C22" s="246"/>
@@ -20045,7 +20046,7 @@
       <c r="K22" s="227"/>
       <c r="L22" s="229"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="245"/>
       <c r="B23" s="246"/>
       <c r="C23" s="246"/>
@@ -20059,7 +20060,7 @@
       <c r="K23" s="227"/>
       <c r="L23" s="229"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="245"/>
       <c r="B24" s="246"/>
       <c r="C24" s="246"/>
@@ -20073,7 +20074,7 @@
       <c r="K24" s="227"/>
       <c r="L24" s="229"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="245"/>
       <c r="B25" s="246"/>
       <c r="C25" s="246"/>
@@ -20087,7 +20088,7 @@
       <c r="K25" s="227"/>
       <c r="L25" s="229"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="245"/>
       <c r="B26" s="246"/>
       <c r="C26" s="246"/>
@@ -20101,7 +20102,7 @@
       <c r="K26" s="227"/>
       <c r="L26" s="229"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="245"/>
       <c r="B27" s="246"/>
       <c r="C27" s="246"/>
@@ -20115,7 +20116,7 @@
       <c r="K27" s="227"/>
       <c r="L27" s="229"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="245"/>
       <c r="B28" s="246"/>
       <c r="C28" s="246"/>
@@ -20129,7 +20130,7 @@
       <c r="K28" s="227"/>
       <c r="L28" s="229"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="227"/>
       <c r="B29" s="246"/>
       <c r="C29" s="246"/>
@@ -20143,7 +20144,7 @@
       <c r="K29" s="227"/>
       <c r="L29" s="229"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="229"/>
       <c r="B30" s="246"/>
       <c r="C30" s="246"/>
@@ -20157,7 +20158,7 @@
       <c r="K30" s="227"/>
       <c r="L30" s="229"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="229"/>
       <c r="B31" s="228"/>
       <c r="C31" s="228"/>
@@ -20171,7 +20172,7 @@
       <c r="K31" s="229"/>
       <c r="L31" s="229"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="229"/>
       <c r="B32" s="228"/>
       <c r="C32" s="228"/>
@@ -20185,7 +20186,7 @@
       <c r="K32" s="229"/>
       <c r="L32" s="229"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="229"/>
       <c r="B33" s="228"/>
       <c r="C33" s="228"/>
@@ -20199,7 +20200,7 @@
       <c r="K33" s="229"/>
       <c r="L33" s="229"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="229"/>
       <c r="B34" s="228"/>
       <c r="C34" s="228"/>
@@ -20213,7 +20214,7 @@
       <c r="K34" s="229"/>
       <c r="L34" s="229"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="229"/>
       <c r="B35" s="228"/>
       <c r="C35" s="228"/>
@@ -20227,7 +20228,7 @@
       <c r="K35" s="229"/>
       <c r="L35" s="229"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="229"/>
       <c r="B36" s="228"/>
       <c r="C36" s="228"/>
@@ -20241,7 +20242,7 @@
       <c r="K36" s="229"/>
       <c r="L36" s="229"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="229"/>
       <c r="B37" s="246"/>
       <c r="C37" s="246"/>
@@ -20255,7 +20256,7 @@
       <c r="K37" s="229"/>
       <c r="L37" s="229"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="229"/>
       <c r="B38" s="246"/>
       <c r="C38" s="246"/>
@@ -20269,7 +20270,7 @@
       <c r="K38" s="229"/>
       <c r="L38" s="229"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="229"/>
       <c r="B39" s="246"/>
       <c r="C39" s="246"/>
@@ -20283,7 +20284,7 @@
       <c r="K39" s="229"/>
       <c r="L39" s="229"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="229"/>
       <c r="B40" s="246"/>
       <c r="C40" s="248"/>
@@ -20297,7 +20298,7 @@
       <c r="K40" s="228"/>
       <c r="L40" s="229"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="229"/>
       <c r="B41" s="246"/>
       <c r="C41" s="246"/>
@@ -20311,7 +20312,7 @@
       <c r="K41" s="229"/>
       <c r="L41" s="229"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="229"/>
       <c r="B42" s="246"/>
       <c r="C42" s="246"/>
@@ -20325,7 +20326,7 @@
       <c r="K42" s="229"/>
       <c r="L42" s="229"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="229"/>
       <c r="B43" s="246"/>
       <c r="C43" s="246"/>
@@ -20339,7 +20340,7 @@
       <c r="K43" s="229"/>
       <c r="L43" s="229"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="229"/>
       <c r="B44" s="246"/>
       <c r="C44" s="246"/>
@@ -20353,7 +20354,7 @@
       <c r="K44" s="229"/>
       <c r="L44" s="229"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="229"/>
       <c r="B45" s="246"/>
       <c r="C45" s="246"/>
@@ -20367,7 +20368,7 @@
       <c r="K45" s="229"/>
       <c r="L45" s="229"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="229"/>
       <c r="B46" s="246"/>
       <c r="C46" s="246"/>
@@ -20381,7 +20382,7 @@
       <c r="K46" s="229"/>
       <c r="L46" s="229"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="229"/>
       <c r="B47" s="246"/>
       <c r="C47" s="246"/>
@@ -20395,7 +20396,7 @@
       <c r="K47" s="229"/>
       <c r="L47" s="229"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="229"/>
       <c r="B48" s="246"/>
       <c r="C48" s="246"/>
@@ -20409,7 +20410,7 @@
       <c r="K48" s="229"/>
       <c r="L48" s="229"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="229"/>
       <c r="B49" s="246"/>
       <c r="C49" s="246"/>
@@ -20423,7 +20424,7 @@
       <c r="K49" s="229"/>
       <c r="L49" s="229"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="229"/>
       <c r="B50" s="246"/>
       <c r="C50" s="246"/>
@@ -20437,7 +20438,7 @@
       <c r="K50" s="229"/>
       <c r="L50" s="229"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="229"/>
       <c r="B51" s="246"/>
       <c r="C51" s="246"/>
@@ -20451,7 +20452,7 @@
       <c r="K51" s="229"/>
       <c r="L51" s="229"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="229"/>
       <c r="B52" s="246"/>
       <c r="C52" s="246"/>
@@ -20465,7 +20466,7 @@
       <c r="K52" s="229"/>
       <c r="L52" s="229"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="229"/>
       <c r="B53" s="246"/>
       <c r="C53" s="246"/>
@@ -20479,7 +20480,7 @@
       <c r="K53" s="229"/>
       <c r="L53" s="229"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="229"/>
       <c r="B54" s="246"/>
       <c r="C54" s="246"/>
@@ -20493,7 +20494,7 @@
       <c r="K54" s="229"/>
       <c r="L54" s="229"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="229"/>
       <c r="B55" s="246"/>
       <c r="C55" s="246"/>
@@ -20507,7 +20508,7 @@
       <c r="K55" s="229"/>
       <c r="L55" s="229"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="229"/>
       <c r="B56" s="246"/>
       <c r="C56" s="246"/>
@@ -20521,7 +20522,7 @@
       <c r="K56" s="229"/>
       <c r="L56" s="229"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="229"/>
       <c r="B57" s="246"/>
       <c r="C57" s="246"/>
@@ -20535,7 +20536,7 @@
       <c r="K57" s="229"/>
       <c r="L57" s="229"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="229"/>
       <c r="B58" s="246"/>
       <c r="C58" s="246"/>
@@ -20549,7 +20550,7 @@
       <c r="K58" s="229"/>
       <c r="L58" s="229"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="229"/>
       <c r="B59" s="246"/>
       <c r="C59" s="246"/>
@@ -20563,7 +20564,7 @@
       <c r="K59" s="249"/>
       <c r="L59" s="229"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="229"/>
       <c r="B60" s="246"/>
       <c r="C60" s="246"/>
@@ -20577,7 +20578,7 @@
       <c r="K60" s="229"/>
       <c r="L60" s="229"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="229"/>
       <c r="B61" s="246"/>
       <c r="C61" s="246"/>
@@ -20591,7 +20592,7 @@
       <c r="K61" s="229"/>
       <c r="L61" s="229"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="229"/>
       <c r="B62" s="246"/>
       <c r="C62" s="246"/>
@@ -20605,7 +20606,7 @@
       <c r="K62" s="229"/>
       <c r="L62" s="229"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="229"/>
       <c r="B63" s="246"/>
       <c r="C63" s="246"/>
@@ -20619,7 +20620,7 @@
       <c r="K63" s="229"/>
       <c r="L63" s="229"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="229"/>
       <c r="B64" s="246"/>
       <c r="C64" s="246"/>
@@ -20633,7 +20634,7 @@
       <c r="K64" s="229"/>
       <c r="L64" s="229"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="229"/>
       <c r="B65" s="246"/>
       <c r="C65" s="246"/>
@@ -20647,7 +20648,7 @@
       <c r="K65" s="229"/>
       <c r="L65" s="229"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="229"/>
       <c r="B66" s="246"/>
       <c r="C66" s="246"/>
@@ -20661,7 +20662,7 @@
       <c r="K66" s="249"/>
       <c r="L66" s="229"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="229"/>
       <c r="B67" s="246"/>
       <c r="C67" s="246"/>
@@ -20675,7 +20676,7 @@
       <c r="K67" s="249"/>
       <c r="L67" s="229"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="229"/>
       <c r="B68" s="246"/>
       <c r="C68" s="246"/>
@@ -20689,7 +20690,7 @@
       <c r="K68" s="229"/>
       <c r="L68" s="229"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="229"/>
       <c r="B69" s="246"/>
       <c r="C69" s="246"/>
@@ -20703,7 +20704,7 @@
       <c r="K69" s="229"/>
       <c r="L69" s="229"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="229"/>
       <c r="B70" s="246"/>
       <c r="C70" s="246"/>
@@ -20717,7 +20718,7 @@
       <c r="K70" s="229"/>
       <c r="L70" s="229"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="229"/>
       <c r="B71" s="246"/>
       <c r="C71" s="246"/>
@@ -20731,7 +20732,7 @@
       <c r="K71" s="229"/>
       <c r="L71" s="229"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="229"/>
       <c r="B72" s="246"/>
       <c r="C72" s="246"/>
@@ -20745,7 +20746,7 @@
       <c r="K72" s="229"/>
       <c r="L72" s="229"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="229"/>
       <c r="B73" s="246"/>
       <c r="C73" s="246"/>
@@ -20759,7 +20760,7 @@
       <c r="K73" s="229"/>
       <c r="L73" s="229"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="229"/>
       <c r="B74" s="228"/>
       <c r="C74" s="228"/>
@@ -20773,7 +20774,7 @@
       <c r="K74" s="249"/>
       <c r="L74" s="229"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="229"/>
       <c r="B75" s="228"/>
       <c r="C75" s="228"/>
@@ -20787,7 +20788,7 @@
       <c r="K75" s="229"/>
       <c r="L75" s="229"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="229"/>
       <c r="B76" s="228"/>
       <c r="C76" s="228"/>
@@ -20801,7 +20802,7 @@
       <c r="K76" s="229"/>
       <c r="L76" s="229"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" s="229"/>
       <c r="B77" s="228"/>
       <c r="C77" s="228"/>
@@ -20815,7 +20816,7 @@
       <c r="K77" s="229"/>
       <c r="L77" s="229"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" s="229"/>
       <c r="B78" s="228"/>
       <c r="C78" s="228"/>
@@ -20829,7 +20830,7 @@
       <c r="K78" s="229"/>
       <c r="L78" s="229"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" s="229"/>
       <c r="B79" s="228"/>
       <c r="C79" s="228"/>
@@ -20843,7 +20844,7 @@
       <c r="K79" s="229"/>
       <c r="L79" s="229"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" s="229"/>
       <c r="B80" s="228"/>
       <c r="C80" s="228"/>
@@ -20857,7 +20858,7 @@
       <c r="K80" s="229"/>
       <c r="L80" s="229"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" s="229"/>
       <c r="B81" s="228"/>
       <c r="C81" s="228"/>
@@ -20871,7 +20872,7 @@
       <c r="K81" s="229"/>
       <c r="L81" s="229"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" s="229"/>
       <c r="B82" s="228"/>
       <c r="C82" s="228"/>
@@ -20885,7 +20886,7 @@
       <c r="K82" s="229"/>
       <c r="L82" s="229"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" s="229"/>
       <c r="B83" s="228"/>
       <c r="C83" s="228"/>
@@ -20899,7 +20900,7 @@
       <c r="K83" s="229"/>
       <c r="L83" s="229"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" s="229"/>
       <c r="B84" s="228"/>
       <c r="C84" s="228"/>
@@ -20913,7 +20914,7 @@
       <c r="K84" s="229"/>
       <c r="L84" s="229"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" s="229"/>
       <c r="B85" s="228"/>
       <c r="C85" s="228"/>
@@ -20927,7 +20928,7 @@
       <c r="K85" s="229"/>
       <c r="L85" s="229"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" s="229"/>
       <c r="B86" s="228"/>
       <c r="C86" s="228"/>
@@ -20941,7 +20942,7 @@
       <c r="K86" s="229"/>
       <c r="L86" s="229"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" s="229"/>
       <c r="B87" s="228"/>
       <c r="C87" s="228"/>
@@ -20955,7 +20956,7 @@
       <c r="K87" s="229"/>
       <c r="L87" s="229"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" s="229"/>
       <c r="B88" s="228"/>
       <c r="C88" s="228"/>
@@ -20969,7 +20970,7 @@
       <c r="K88" s="229"/>
       <c r="L88" s="229"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" s="229"/>
       <c r="B89" s="228"/>
       <c r="C89" s="228"/>
@@ -20983,7 +20984,7 @@
       <c r="K89" s="229"/>
       <c r="L89" s="229"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" s="229"/>
       <c r="B90" s="228"/>
       <c r="C90" s="228"/>
@@ -20997,7 +20998,7 @@
       <c r="K90" s="229"/>
       <c r="L90" s="229"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" s="229"/>
       <c r="B91" s="228"/>
       <c r="C91" s="228"/>
@@ -21011,7 +21012,7 @@
       <c r="K91" s="229"/>
       <c r="L91" s="229"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" s="229"/>
       <c r="B92" s="228"/>
       <c r="C92" s="228"/>
@@ -21025,7 +21026,7 @@
       <c r="K92" s="229"/>
       <c r="L92" s="229"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" s="229"/>
       <c r="B93" s="228"/>
       <c r="C93" s="228"/>
@@ -21039,7 +21040,7 @@
       <c r="K93" s="229"/>
       <c r="L93" s="229"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" s="229"/>
       <c r="B94" s="228"/>
       <c r="C94" s="228"/>
@@ -21053,7 +21054,7 @@
       <c r="K94" s="229"/>
       <c r="L94" s="229"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" s="229"/>
       <c r="B95" s="228"/>
       <c r="C95" s="228"/>
@@ -21095,25 +21096,25 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="19" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20:B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" customWidth="1"/>
-    <col min="10" max="10" width="41.7109375" customWidth="1"/>
-    <col min="11" max="11" width="38.140625" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" customWidth="1"/>
+    <col min="10" max="10" width="41.6640625" customWidth="1"/>
+    <col min="11" max="11" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
       <c r="C1" s="11" t="s">
@@ -21134,7 +21135,7 @@
       <c r="P1" s="13"/>
       <c r="Q1" s="14"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
@@ -21155,7 +21156,7 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="20"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
       <c r="B3" s="21"/>
       <c r="C3" s="5"/>
@@ -21176,7 +21177,7 @@
       <c r="P3" s="23"/>
       <c r="Q3" s="25"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="21"/>
       <c r="C4" s="5"/>
@@ -21197,7 +21198,7 @@
       <c r="P4" s="26"/>
       <c r="Q4" s="28"/>
     </row>
-    <row r="5" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="21"/>
       <c r="C5" s="29"/>
@@ -21218,7 +21219,7 @@
       <c r="P5" s="31"/>
       <c r="Q5" s="33"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="21"/>
       <c r="C6" s="29"/>
@@ -21229,7 +21230,7 @@
       </c>
       <c r="Q6" s="35"/>
     </row>
-    <row r="7" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="21"/>
       <c r="C7" s="29"/>
@@ -21238,7 +21239,7 @@
       <c r="F7" s="34"/>
       <c r="Q7" s="35"/>
     </row>
-    <row r="8" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="21"/>
       <c r="C8" s="29"/>
@@ -21247,7 +21248,7 @@
       <c r="F8" s="34"/>
       <c r="Q8" s="35"/>
     </row>
-    <row r="9" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="21"/>
       <c r="C9" s="29"/>
@@ -21256,7 +21257,7 @@
       <c r="F9" s="34"/>
       <c r="Q9" s="35"/>
     </row>
-    <row r="10" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="21"/>
       <c r="C10" s="29"/>
@@ -21265,7 +21266,7 @@
       <c r="F10" s="34"/>
       <c r="Q10" s="35"/>
     </row>
-    <row r="11" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="21"/>
       <c r="C11" s="29"/>
@@ -21274,7 +21275,7 @@
       <c r="F11" s="34"/>
       <c r="Q11" s="35"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="331" t="s">
         <v>314</v>
@@ -21285,7 +21286,7 @@
       <c r="F12" s="34"/>
       <c r="Q12" s="35"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="332"/>
       <c r="C13" s="29"/>
@@ -21310,7 +21311,7 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="14"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="332"/>
       <c r="C14" s="29"/>
@@ -21331,7 +21332,7 @@
       <c r="P14" s="40"/>
       <c r="Q14" s="41"/>
     </row>
-    <row r="15" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="332"/>
       <c r="C15" s="29"/>
@@ -21346,7 +21347,7 @@
       </c>
       <c r="Q15" s="35"/>
     </row>
-    <row r="16" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="332"/>
       <c r="C16" s="29"/>
@@ -21362,7 +21363,7 @@
       <c r="P16" s="26"/>
       <c r="Q16" s="28"/>
     </row>
-    <row r="17" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="332"/>
       <c r="C17" s="334" t="s">
@@ -21387,7 +21388,7 @@
       <c r="P17" s="258"/>
       <c r="Q17" s="259"/>
     </row>
-    <row r="18" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="332"/>
       <c r="C18" s="332"/>
@@ -21409,7 +21410,7 @@
       <c r="P18" s="26"/>
       <c r="Q18" s="28"/>
     </row>
-    <row r="19" spans="1:17" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
         <v>16</v>
       </c>
@@ -21436,7 +21437,7 @@
       <c r="P19" s="51"/>
       <c r="Q19" s="260"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>326</v>
       </c>
@@ -21464,7 +21465,7 @@
       </c>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>329</v>
       </c>
@@ -21494,7 +21495,7 @@
       </c>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>331</v>
       </c>
@@ -21524,7 +21525,7 @@
       </c>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>334</v>
       </c>
@@ -21556,7 +21557,7 @@
       </c>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>337</v>
       </c>
@@ -21588,7 +21589,7 @@
       </c>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>340</v>
       </c>
@@ -21620,7 +21621,7 @@
       </c>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>342</v>
       </c>
@@ -21650,7 +21651,7 @@
       </c>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>346</v>
       </c>
@@ -21680,7 +21681,7 @@
       </c>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>350</v>
       </c>
@@ -21710,7 +21711,7 @@
       </c>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>354</v>
       </c>
@@ -21744,7 +21745,7 @@
       </c>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>358</v>
       </c>
@@ -21770,7 +21771,7 @@
       </c>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>363</v>
       </c>
@@ -21798,7 +21799,7 @@
       </c>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>368</v>
       </c>
@@ -21828,7 +21829,7 @@
       </c>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>372</v>
       </c>
@@ -21860,7 +21861,7 @@
       </c>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>376</v>
       </c>
@@ -21892,7 +21893,7 @@
       </c>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>379</v>
       </c>
@@ -21919,7 +21920,7 @@
       </c>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>382</v>
       </c>
@@ -21944,7 +21945,7 @@
       </c>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>384</v>
       </c>
@@ -21976,7 +21977,7 @@
       </c>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>387</v>
       </c>
@@ -22004,7 +22005,7 @@
       </c>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>390</v>
       </c>
@@ -22026,7 +22027,7 @@
       </c>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>393</v>
       </c>
@@ -22055,7 +22056,7 @@
       </c>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>395</v>
       </c>
@@ -22085,7 +22086,7 @@
       </c>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>399</v>
       </c>
@@ -22117,7 +22118,7 @@
       </c>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>405</v>
       </c>
@@ -22149,7 +22150,7 @@
       </c>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>409</v>
       </c>
@@ -22178,7 +22179,7 @@
       </c>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>412</v>
       </c>
@@ -22210,7 +22211,7 @@
       </c>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>415</v>
       </c>
@@ -22238,7 +22239,7 @@
       </c>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -22249,7 +22250,7 @@
       <c r="I47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -22260,7 +22261,7 @@
       <c r="I48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -22271,7 +22272,7 @@
       <c r="I49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -22282,7 +22283,7 @@
       <c r="I50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -22293,7 +22294,7 @@
       <c r="I51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="327"/>
@@ -22304,7 +22305,7 @@
       <c r="I52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -22315,7 +22316,7 @@
       <c r="I53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -22326,7 +22327,7 @@
       <c r="I54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -22337,7 +22338,7 @@
       <c r="I55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -22348,7 +22349,7 @@
       <c r="I56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -22359,7 +22360,7 @@
       <c r="I57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -22370,7 +22371,7 @@
       <c r="I58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -22381,7 +22382,7 @@
       <c r="I59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="54"/>
       <c r="C60" s="5"/>
@@ -22395,7 +22396,7 @@
       <c r="K60" s="8"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -22406,7 +22407,7 @@
       <c r="I61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -22417,7 +22418,7 @@
       <c r="I62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -22428,7 +22429,7 @@
       <c r="I63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -22439,7 +22440,7 @@
       <c r="I64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -22450,7 +22451,7 @@
       <c r="I65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -22461,7 +22462,7 @@
       <c r="I66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -22472,7 +22473,7 @@
       <c r="I67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -22482,7 +22483,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -22492,7 +22493,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -22502,7 +22503,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -22512,7 +22513,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -22522,7 +22523,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -22532,7 +22533,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -22542,7 +22543,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -22552,7 +22553,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -22562,7 +22563,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -22572,7 +22573,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -22582,7 +22583,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -22592,7 +22593,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -22602,7 +22603,7 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -22612,7 +22613,7 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -22622,7 +22623,7 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -22632,7 +22633,7 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -22642,7 +22643,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -22652,7 +22653,7 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -22662,7 +22663,7 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -22672,7 +22673,7 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -22682,7 +22683,7 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -22692,7 +22693,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -22702,7 +22703,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -22712,7 +22713,7 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -22722,7 +22723,7 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -22732,7 +22733,7 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -22742,7 +22743,7 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -22752,7 +22753,7 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -22762,7 +22763,7 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -22772,7 +22773,7 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -22782,7 +22783,7 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -22792,7 +22793,7 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -22802,7 +22803,7 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -22812,7 +22813,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -22822,7 +22823,7 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -22832,7 +22833,7 @@
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -22842,7 +22843,7 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -22852,7 +22853,7 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -22862,7 +22863,7 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -22872,7 +22873,7 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -22882,7 +22883,7 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -22892,7 +22893,7 @@
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -22902,7 +22903,7 @@
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -22912,7 +22913,7 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -22922,7 +22923,7 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -22932,7 +22933,7 @@
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -22942,7 +22943,7 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -22952,7 +22953,7 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -22962,7 +22963,7 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -22972,7 +22973,7 @@
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -22982,7 +22983,7 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -22992,7 +22993,7 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -23002,7 +23003,7 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -23036,23 +23037,23 @@
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="5" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="35.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="9.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="35.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="264" t="s">
         <v>418</v>
       </c>
@@ -23089,7 +23090,7 @@
       <c r="L2" s="265"/>
       <c r="M2" s="266"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="278" t="s">
         <v>429</v>
       </c>
@@ -23124,7 +23125,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="278" t="s">
         <v>435</v>
       </c>
@@ -23157,7 +23158,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="278" t="s">
         <v>440</v>
       </c>
@@ -23188,7 +23189,7 @@
       </c>
       <c r="M5" s="270"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="278" t="s">
         <v>442</v>
       </c>
@@ -23223,7 +23224,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="278" t="s">
         <v>445</v>
       </c>
@@ -23252,7 +23253,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="278" t="s">
         <v>448</v>
       </c>
@@ -23283,7 +23284,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="278" t="s">
         <v>451</v>
       </c>
@@ -23316,7 +23317,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="278" t="s">
         <v>454</v>
       </c>
@@ -23349,7 +23350,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="278" t="s">
         <v>456</v>
       </c>
@@ -23382,7 +23383,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="278" t="s">
         <v>458</v>
       </c>
@@ -23413,7 +23414,7 @@
       </c>
       <c r="M12" s="270"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="278" t="s">
         <v>460</v>
       </c>
@@ -23442,7 +23443,7 @@
       </c>
       <c r="M13" s="270"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="278" t="s">
         <v>462</v>
       </c>
@@ -23471,7 +23472,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="278" t="s">
         <v>466</v>
       </c>
@@ -23500,7 +23501,7 @@
       </c>
       <c r="M15" s="270"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="279" t="s">
         <v>467</v>
       </c>
@@ -23525,7 +23526,7 @@
       <c r="L16" s="263"/>
       <c r="M16" s="271"/>
     </row>
-    <row r="17" spans="1:13" s="229" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="229" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="267"/>
       <c r="C17" s="268"/>
       <c r="D17" s="268"/>
@@ -23537,7 +23538,7 @@
       <c r="J17" s="268"/>
       <c r="K17" s="268"/>
     </row>
-    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="264" t="s">
         <v>469</v>
       </c>
@@ -23574,7 +23575,7 @@
       </c>
       <c r="M18" s="266"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="275" t="s">
         <v>476</v>
       </c>
@@ -23605,7 +23606,7 @@
       </c>
       <c r="M19" s="269"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="276" t="s">
         <v>479</v>
       </c>
@@ -23636,7 +23637,7 @@
       </c>
       <c r="M20" s="270"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="276" t="s">
         <v>481</v>
       </c>
@@ -23675,7 +23676,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="276" t="s">
         <v>485</v>
       </c>
@@ -23706,7 +23707,7 @@
       </c>
       <c r="M22" s="270"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="276" t="s">
         <v>487</v>
       </c>
@@ -23743,7 +23744,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="276" t="s">
         <v>489</v>
       </c>
@@ -23778,7 +23779,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="276" t="s">
         <v>492</v>
       </c>
@@ -23809,7 +23810,7 @@
       </c>
       <c r="M25" s="270"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="276" t="s">
         <v>494</v>
       </c>
@@ -23848,7 +23849,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="276" t="s">
         <v>497</v>
       </c>
@@ -23885,7 +23886,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="276" t="s">
         <v>499</v>
       </c>
@@ -23910,7 +23911,7 @@
       </c>
       <c r="M28" s="270"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="276" t="s">
         <v>501</v>
       </c>
@@ -23947,7 +23948,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="276" t="s">
         <v>503</v>
       </c>
@@ -23984,7 +23985,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="276" t="s">
         <v>505</v>
       </c>
@@ -24009,7 +24010,7 @@
       </c>
       <c r="M31" s="270"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="276" t="s">
         <v>507</v>
       </c>
@@ -24040,7 +24041,7 @@
       </c>
       <c r="M32" s="270"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="276" t="s">
         <v>509</v>
       </c>
@@ -24073,7 +24074,7 @@
       </c>
       <c r="M33" s="270"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="276" t="s">
         <v>511</v>
       </c>
@@ -24106,7 +24107,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="276" t="s">
         <v>514</v>
       </c>
@@ -24141,7 +24142,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="276" t="s">
         <v>517</v>
       </c>
@@ -24178,7 +24179,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="276" t="s">
         <v>519</v>
       </c>
@@ -24213,7 +24214,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="276" t="s">
         <v>521</v>
       </c>
@@ -24250,7 +24251,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="276" t="s">
         <v>523</v>
       </c>
@@ -24283,7 +24284,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="276" t="s">
         <v>527</v>
       </c>
@@ -24320,7 +24321,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="276" t="s">
         <v>529</v>
       </c>
@@ -24359,7 +24360,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="276" t="s">
         <v>531</v>
       </c>
@@ -24394,7 +24395,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="276" t="s">
         <v>535</v>
       </c>
@@ -24431,7 +24432,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="276" t="s">
         <v>537</v>
       </c>
@@ -24464,7 +24465,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="276" t="s">
         <v>539</v>
       </c>
@@ -24497,7 +24498,7 @@
       </c>
       <c r="M45" s="270"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="277" t="s">
         <v>542</v>
       </c>
@@ -24550,15 +24551,15 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="404" t="s">
         <v>545</v>
       </c>
@@ -24566,7 +24567,7 @@
       <c r="C1" s="404"/>
       <c r="D1" s="404"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="282" t="s">
         <v>546</v>
       </c>
@@ -24592,15 +24593,15 @@
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="282" t="s">
         <v>550</v>
       </c>
@@ -24628,7 +24629,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="282" t="s">
         <v>554</v>
       </c>
@@ -24658,7 +24659,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="282" t="s">
         <v>556</v>
       </c>
@@ -24684,7 +24685,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="282" t="s">
         <v>558</v>
       </c>
@@ -24712,7 +24713,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -24723,7 +24724,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>561</v>
       </c>
@@ -24737,7 +24738,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="282" t="s">
         <v>562</v>
       </c>
@@ -24763,7 +24764,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="282" t="s">
         <v>566</v>
       </c>
@@ -24807,23 +24808,23 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="B16" sqref="B16:B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
     <col min="6" max="7" width="6" style="5" customWidth="1"/>
-    <col min="8" max="9" width="5.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="45.5703125" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" customWidth="1"/>
+    <col min="8" max="9" width="5.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="45.5" customWidth="1"/>
+    <col min="11" max="11" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="229"/>
       <c r="B1" s="228"/>
       <c r="C1" s="307"/>
@@ -24836,219 +24837,219 @@
       <c r="J1" s="308"/>
       <c r="K1" s="309"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="229"/>
-      <c r="B2" s="405" t="s">
+      <c r="B2" s="406" t="s">
         <v>570</v>
       </c>
-      <c r="C2" s="415" t="s">
+      <c r="C2" s="416" t="s">
         <v>571</v>
       </c>
-      <c r="D2" s="415"/>
-      <c r="E2" s="415"/>
-      <c r="F2" s="415"/>
-      <c r="G2" s="415"/>
-      <c r="H2" s="415"/>
-      <c r="I2" s="415"/>
-      <c r="J2" s="415"/>
-      <c r="K2" s="416"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="416"/>
+      <c r="E2" s="416"/>
+      <c r="F2" s="416"/>
+      <c r="G2" s="416"/>
+      <c r="H2" s="416"/>
+      <c r="I2" s="416"/>
+      <c r="J2" s="416"/>
+      <c r="K2" s="417"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="229"/>
-      <c r="B3" s="406"/>
-      <c r="C3" s="412" t="s">
+      <c r="B3" s="407"/>
+      <c r="C3" s="413" t="s">
         <v>572</v>
       </c>
-      <c r="D3" s="412"/>
-      <c r="E3" s="412"/>
-      <c r="F3" s="412"/>
-      <c r="G3" s="412"/>
-      <c r="H3" s="412"/>
-      <c r="I3" s="412"/>
-      <c r="J3" s="412"/>
-      <c r="K3" s="413"/>
-    </row>
-    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="413"/>
+      <c r="E3" s="413"/>
+      <c r="F3" s="413"/>
+      <c r="G3" s="413"/>
+      <c r="H3" s="413"/>
+      <c r="I3" s="413"/>
+      <c r="J3" s="413"/>
+      <c r="K3" s="414"/>
+    </row>
+    <row r="4" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="229"/>
-      <c r="B4" s="407"/>
+      <c r="B4" s="408"/>
       <c r="C4" s="286"/>
-      <c r="D4" s="417" t="s">
+      <c r="D4" s="418" t="s">
         <v>573</v>
       </c>
-      <c r="E4" s="417"/>
-      <c r="F4" s="417"/>
-      <c r="G4" s="417"/>
-      <c r="H4" s="417"/>
-      <c r="I4" s="417"/>
-      <c r="J4" s="417"/>
-      <c r="K4" s="418"/>
-    </row>
-    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="418"/>
+      <c r="F4" s="418"/>
+      <c r="G4" s="418"/>
+      <c r="H4" s="418"/>
+      <c r="I4" s="418"/>
+      <c r="J4" s="418"/>
+      <c r="K4" s="419"/>
+    </row>
+    <row r="5" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="229"/>
-      <c r="B5" s="407"/>
-      <c r="C5" s="408" t="s">
+      <c r="B5" s="408"/>
+      <c r="C5" s="409" t="s">
         <v>281</v>
       </c>
       <c r="D5" s="287"/>
-      <c r="E5" s="419" t="s">
+      <c r="E5" s="420" t="s">
         <v>574</v>
       </c>
-      <c r="F5" s="419"/>
-      <c r="G5" s="419"/>
-      <c r="H5" s="419"/>
-      <c r="I5" s="419"/>
-      <c r="J5" s="419"/>
-      <c r="K5" s="420"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="420"/>
+      <c r="G5" s="420"/>
+      <c r="H5" s="420"/>
+      <c r="I5" s="420"/>
+      <c r="J5" s="420"/>
+      <c r="K5" s="421"/>
+    </row>
+    <row r="6" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="229"/>
-      <c r="B6" s="407"/>
-      <c r="C6" s="408"/>
-      <c r="D6" s="409" t="s">
+      <c r="B6" s="408"/>
+      <c r="C6" s="409"/>
+      <c r="D6" s="410" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="304"/>
-      <c r="F6" s="421" t="s">
+      <c r="F6" s="422" t="s">
         <v>575</v>
       </c>
-      <c r="G6" s="421"/>
-      <c r="H6" s="421"/>
-      <c r="I6" s="421"/>
-      <c r="J6" s="421"/>
-      <c r="K6" s="422"/>
-    </row>
-    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="422"/>
+      <c r="H6" s="422"/>
+      <c r="I6" s="422"/>
+      <c r="J6" s="422"/>
+      <c r="K6" s="423"/>
+    </row>
+    <row r="7" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="229"/>
-      <c r="B7" s="407"/>
-      <c r="C7" s="408"/>
-      <c r="D7" s="409"/>
+      <c r="B7" s="408"/>
+      <c r="C7" s="409"/>
+      <c r="D7" s="410"/>
       <c r="E7" s="304"/>
       <c r="F7" s="313"/>
-      <c r="G7" s="423" t="s">
+      <c r="G7" s="424" t="s">
         <v>576</v>
       </c>
-      <c r="H7" s="423"/>
-      <c r="I7" s="423"/>
-      <c r="J7" s="423"/>
-      <c r="K7" s="424"/>
-    </row>
-    <row r="8" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="424"/>
+      <c r="I7" s="424"/>
+      <c r="J7" s="424"/>
+      <c r="K7" s="425"/>
+    </row>
+    <row r="8" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="229"/>
-      <c r="B8" s="407"/>
-      <c r="C8" s="408"/>
-      <c r="D8" s="409"/>
+      <c r="B8" s="408"/>
+      <c r="C8" s="409"/>
+      <c r="D8" s="410"/>
       <c r="E8" s="304"/>
       <c r="F8" s="312"/>
       <c r="G8" s="305"/>
-      <c r="H8" s="417" t="s">
+      <c r="H8" s="418" t="s">
         <v>577</v>
       </c>
-      <c r="I8" s="417"/>
-      <c r="J8" s="417"/>
-      <c r="K8" s="418"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="418"/>
+      <c r="J8" s="418"/>
+      <c r="K8" s="419"/>
+    </row>
+    <row r="9" spans="1:11" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="229"/>
-      <c r="B9" s="407"/>
-      <c r="C9" s="408"/>
-      <c r="D9" s="409"/>
-      <c r="E9" s="408" t="s">
+      <c r="B9" s="408"/>
+      <c r="C9" s="409"/>
+      <c r="D9" s="410"/>
+      <c r="E9" s="409" t="s">
         <v>578</v>
       </c>
-      <c r="F9" s="409" t="s">
+      <c r="F9" s="410" t="s">
         <v>579</v>
       </c>
-      <c r="G9" s="408" t="s">
+      <c r="G9" s="409" t="s">
         <v>580</v>
       </c>
       <c r="H9" s="292"/>
-      <c r="I9" s="425" t="s">
+      <c r="I9" s="426" t="s">
         <v>581</v>
       </c>
-      <c r="J9" s="425"/>
-      <c r="K9" s="426"/>
-    </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="426"/>
+      <c r="K9" s="427"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="229"/>
-      <c r="B10" s="407"/>
-      <c r="C10" s="408"/>
-      <c r="D10" s="409"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="409"/>
-      <c r="G10" s="408"/>
+      <c r="B10" s="408"/>
+      <c r="C10" s="409"/>
+      <c r="D10" s="410"/>
+      <c r="E10" s="415"/>
+      <c r="F10" s="410"/>
+      <c r="G10" s="409"/>
       <c r="H10" s="314"/>
       <c r="I10" s="285"/>
-      <c r="J10" s="410"/>
-      <c r="K10" s="411"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J10" s="411"/>
+      <c r="K10" s="412"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="229"/>
-      <c r="B11" s="407"/>
-      <c r="C11" s="408"/>
-      <c r="D11" s="409"/>
-      <c r="E11" s="414"/>
-      <c r="F11" s="409"/>
-      <c r="G11" s="408"/>
-      <c r="H11" s="427" t="s">
+      <c r="B11" s="408"/>
+      <c r="C11" s="409"/>
+      <c r="D11" s="410"/>
+      <c r="E11" s="415"/>
+      <c r="F11" s="410"/>
+      <c r="G11" s="409"/>
+      <c r="H11" s="428" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="428" t="s">
+      <c r="I11" s="405" t="s">
         <v>285</v>
       </c>
       <c r="J11" s="311"/>
       <c r="K11" s="296"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="229"/>
-      <c r="B12" s="407"/>
-      <c r="C12" s="408"/>
-      <c r="D12" s="409"/>
-      <c r="E12" s="414"/>
-      <c r="F12" s="409"/>
-      <c r="G12" s="408"/>
-      <c r="H12" s="427"/>
-      <c r="I12" s="361"/>
+      <c r="B12" s="408"/>
+      <c r="C12" s="409"/>
+      <c r="D12" s="410"/>
+      <c r="E12" s="415"/>
+      <c r="F12" s="410"/>
+      <c r="G12" s="409"/>
+      <c r="H12" s="428"/>
+      <c r="I12" s="365"/>
       <c r="J12" s="310"/>
       <c r="K12" s="297"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="229"/>
-      <c r="B13" s="407"/>
-      <c r="C13" s="408"/>
-      <c r="D13" s="409"/>
-      <c r="E13" s="414"/>
-      <c r="F13" s="409"/>
-      <c r="G13" s="408"/>
-      <c r="H13" s="427"/>
-      <c r="I13" s="361"/>
+      <c r="B13" s="408"/>
+      <c r="C13" s="409"/>
+      <c r="D13" s="410"/>
+      <c r="E13" s="415"/>
+      <c r="F13" s="410"/>
+      <c r="G13" s="409"/>
+      <c r="H13" s="428"/>
+      <c r="I13" s="365"/>
       <c r="J13" s="310"/>
       <c r="K13" s="297"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="229"/>
-      <c r="B14" s="407"/>
-      <c r="C14" s="408"/>
-      <c r="D14" s="409"/>
-      <c r="E14" s="414"/>
-      <c r="F14" s="409"/>
-      <c r="G14" s="408"/>
-      <c r="H14" s="427"/>
-      <c r="I14" s="361"/>
+      <c r="B14" s="408"/>
+      <c r="C14" s="409"/>
+      <c r="D14" s="410"/>
+      <c r="E14" s="415"/>
+      <c r="F14" s="410"/>
+      <c r="G14" s="409"/>
+      <c r="H14" s="428"/>
+      <c r="I14" s="365"/>
       <c r="J14" s="310"/>
       <c r="K14" s="297"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="295" t="s">
         <v>582</v>
       </c>
-      <c r="B15" s="407"/>
-      <c r="C15" s="408"/>
-      <c r="D15" s="409"/>
-      <c r="E15" s="414"/>
-      <c r="F15" s="409"/>
-      <c r="G15" s="408"/>
-      <c r="H15" s="427"/>
-      <c r="I15" s="361"/>
+      <c r="B15" s="408"/>
+      <c r="C15" s="409"/>
+      <c r="D15" s="410"/>
+      <c r="E15" s="415"/>
+      <c r="F15" s="410"/>
+      <c r="G15" s="409"/>
+      <c r="H15" s="428"/>
+      <c r="I15" s="365"/>
       <c r="J15" s="294" t="s">
         <v>172</v>
       </c>
@@ -25056,7 +25057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="315" t="s">
         <v>583</v>
       </c>
@@ -25071,7 +25072,7 @@
       <c r="J16" s="105"/>
       <c r="K16" s="105"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="133" t="s">
         <v>584</v>
       </c>
@@ -25096,7 +25097,7 @@
       </c>
       <c r="K17" s="101"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="101" t="s">
         <v>587</v>
       </c>
@@ -25121,7 +25122,7 @@
       </c>
       <c r="K18" s="101"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="101" t="s">
         <v>589</v>
       </c>
@@ -25146,7 +25147,7 @@
       </c>
       <c r="K19" s="101"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="133" t="s">
         <v>591</v>
       </c>
@@ -25171,7 +25172,7 @@
       </c>
       <c r="K20" s="101"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="101" t="s">
         <v>593</v>
       </c>
@@ -25196,7 +25197,7 @@
       </c>
       <c r="K21" s="101"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="133" t="s">
         <v>595</v>
       </c>
@@ -25225,7 +25226,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="133" t="s">
         <v>599</v>
       </c>
@@ -25254,7 +25255,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="101"/>
       <c r="B24" s="73"/>
       <c r="C24" s="73"/>
@@ -25267,7 +25268,7 @@
       <c r="J24" s="101"/>
       <c r="K24" s="101"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="316" t="s">
         <v>602</v>
       </c>
@@ -25282,7 +25283,7 @@
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="300" t="s">
         <v>603</v>
       </c>
@@ -25309,7 +25310,7 @@
       </c>
       <c r="K26" s="113"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="300"/>
       <c r="B27" s="111"/>
       <c r="C27" s="111"/>
@@ -25322,7 +25323,7 @@
       <c r="J27" s="300"/>
       <c r="K27" s="113"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="315" t="s">
         <v>606</v>
       </c>
@@ -25337,7 +25338,7 @@
       <c r="J28" s="101"/>
       <c r="K28" s="101"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="101" t="s">
         <v>607</v>
       </c>
@@ -25364,7 +25365,7 @@
       </c>
       <c r="K29" s="101"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="101" t="s">
         <v>610</v>
       </c>
@@ -25391,7 +25392,7 @@
       </c>
       <c r="K30" s="101"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="101"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -25404,7 +25405,7 @@
       <c r="J31" s="101"/>
       <c r="K31" s="101"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="315" t="s">
         <v>613</v>
       </c>
@@ -25419,7 +25420,7 @@
       <c r="J32" s="101"/>
       <c r="K32" s="101"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="115" t="s">
         <v>614</v>
       </c>
@@ -25448,7 +25449,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="133" t="s">
         <v>619</v>
       </c>
@@ -25479,7 +25480,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="101"/>
       <c r="B35" s="73"/>
       <c r="C35" s="3"/>
@@ -25492,13 +25493,13 @@
       <c r="J35" s="101"/>
       <c r="K35" s="101"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="317" t="s">
         <v>624</v>
       </c>
       <c r="B36" s="54"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="101" t="s">
         <v>625</v>
       </c>
@@ -25525,7 +25526,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="101" t="s">
         <v>629</v>
       </c>
@@ -25552,7 +25553,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="101" t="s">
         <v>632</v>
       </c>
@@ -25575,7 +25576,7 @@
       </c>
       <c r="K39" s="101"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="101"/>
       <c r="B40" s="73"/>
       <c r="C40" s="3"/>
@@ -25588,61 +25589,56 @@
       <c r="J40" s="101"/>
       <c r="K40" s="101"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="H44" s="164"/>
       <c r="I44" s="164"/>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="H45" s="164"/>
       <c r="I45" s="164"/>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="H46" s="164"/>
       <c r="I46" s="164"/>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="H47" s="164"/>
       <c r="I47" s="164"/>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="H48" s="164"/>
       <c r="I48" s="164"/>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:11" x14ac:dyDescent="0.15">
       <c r="H49" s="164"/>
       <c r="I49" s="164"/>
       <c r="K49" s="5"/>
     </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="8:11" x14ac:dyDescent="0.15">
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="8:11" x14ac:dyDescent="0.15">
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="8:11" x14ac:dyDescent="0.15">
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="8:11" x14ac:dyDescent="0.15">
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="8:11" x14ac:dyDescent="0.15">
       <c r="K55" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="C5:C15"/>
-    <mergeCell ref="D6:D15"/>
-    <mergeCell ref="G9:G15"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="F9:F15"/>
@@ -25655,6 +25651,11 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="H11:H15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="D6:D15"/>
+    <mergeCell ref="G9:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25667,26 +25668,26 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M59" sqref="M59"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18:J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="6" style="5" customWidth="1"/>
-    <col min="6" max="7" width="5.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" customWidth="1"/>
-    <col min="12" max="12" width="44.140625" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" customWidth="1"/>
+    <col min="6" max="7" width="5.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="11" max="11" width="42.83203125" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="229"/>
       <c r="C1" s="228"/>
       <c r="D1" s="228"/>
@@ -25699,84 +25700,84 @@
       <c r="K1" s="229"/>
       <c r="L1" s="229"/>
     </row>
-    <row r="2" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="229"/>
-      <c r="B2" s="405" t="s">
+      <c r="B2" s="406" t="s">
         <v>634</v>
       </c>
-      <c r="C2" s="438" t="s">
+      <c r="C2" s="440" t="s">
         <v>635</v>
       </c>
-      <c r="D2" s="439"/>
-      <c r="E2" s="439"/>
-      <c r="F2" s="439"/>
-      <c r="G2" s="439"/>
-      <c r="H2" s="439"/>
-      <c r="I2" s="439"/>
-      <c r="J2" s="439"/>
-      <c r="K2" s="439"/>
-      <c r="L2" s="440"/>
-    </row>
-    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="441"/>
+      <c r="E2" s="441"/>
+      <c r="F2" s="441"/>
+      <c r="G2" s="441"/>
+      <c r="H2" s="441"/>
+      <c r="I2" s="441"/>
+      <c r="J2" s="441"/>
+      <c r="K2" s="441"/>
+      <c r="L2" s="442"/>
+    </row>
+    <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="229"/>
-      <c r="B3" s="407"/>
+      <c r="B3" s="408"/>
       <c r="C3" s="286"/>
-      <c r="D3" s="441" t="s">
+      <c r="D3" s="443" t="s">
         <v>636</v>
       </c>
-      <c r="E3" s="442"/>
-      <c r="F3" s="442"/>
-      <c r="G3" s="442"/>
-      <c r="H3" s="442"/>
-      <c r="I3" s="442"/>
-      <c r="J3" s="442"/>
-      <c r="K3" s="442"/>
-      <c r="L3" s="443"/>
-    </row>
-    <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="444"/>
+      <c r="F3" s="444"/>
+      <c r="G3" s="444"/>
+      <c r="H3" s="444"/>
+      <c r="I3" s="444"/>
+      <c r="J3" s="444"/>
+      <c r="K3" s="444"/>
+      <c r="L3" s="445"/>
+    </row>
+    <row r="4" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="229"/>
-      <c r="B4" s="407"/>
-      <c r="C4" s="447" t="s">
+      <c r="B4" s="408"/>
+      <c r="C4" s="449" t="s">
         <v>637</v>
       </c>
       <c r="D4" s="287"/>
-      <c r="E4" s="444" t="s">
+      <c r="E4" s="446" t="s">
         <v>638</v>
       </c>
-      <c r="F4" s="445"/>
-      <c r="G4" s="445"/>
-      <c r="H4" s="445"/>
-      <c r="I4" s="445"/>
-      <c r="J4" s="445"/>
-      <c r="K4" s="445"/>
-      <c r="L4" s="446"/>
-    </row>
-    <row r="5" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="447"/>
+      <c r="G4" s="447"/>
+      <c r="H4" s="447"/>
+      <c r="I4" s="447"/>
+      <c r="J4" s="447"/>
+      <c r="K4" s="447"/>
+      <c r="L4" s="448"/>
+    </row>
+    <row r="5" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="229"/>
-      <c r="B5" s="407"/>
-      <c r="C5" s="447"/>
-      <c r="D5" s="448" t="s">
+      <c r="B5" s="408"/>
+      <c r="C5" s="449"/>
+      <c r="D5" s="450" t="s">
         <v>639</v>
       </c>
-      <c r="F5" s="453" t="s">
+      <c r="F5" s="455" t="s">
         <v>640</v>
       </c>
-      <c r="G5" s="453"/>
-      <c r="H5" s="454"/>
-      <c r="I5" s="454"/>
-      <c r="J5" s="454"/>
-      <c r="K5" s="454"/>
-      <c r="L5" s="455"/>
-    </row>
-    <row r="6" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="455"/>
+      <c r="H5" s="456"/>
+      <c r="I5" s="456"/>
+      <c r="J5" s="456"/>
+      <c r="K5" s="456"/>
+      <c r="L5" s="457"/>
+    </row>
+    <row r="6" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="229"/>
-      <c r="B6" s="407"/>
-      <c r="C6" s="447"/>
-      <c r="D6" s="449"/>
-      <c r="E6" s="452" t="s">
+      <c r="B6" s="408"/>
+      <c r="C6" s="449"/>
+      <c r="D6" s="451"/>
+      <c r="E6" s="454" t="s">
         <v>641</v>
       </c>
-      <c r="F6" s="461" t="s">
+      <c r="F6" s="429" t="s">
         <v>642</v>
       </c>
       <c r="G6" s="288" t="s">
@@ -25788,175 +25789,175 @@
       <c r="K6" s="290"/>
       <c r="L6" s="291"/>
     </row>
-    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="229"/>
-      <c r="B7" s="407"/>
-      <c r="C7" s="447"/>
-      <c r="D7" s="449"/>
-      <c r="E7" s="452"/>
-      <c r="F7" s="462"/>
-      <c r="G7" s="458" t="s">
+      <c r="B7" s="408"/>
+      <c r="C7" s="449"/>
+      <c r="D7" s="451"/>
+      <c r="E7" s="454"/>
+      <c r="F7" s="430"/>
+      <c r="G7" s="460" t="s">
         <v>644</v>
       </c>
-      <c r="H7" s="456" t="s">
+      <c r="H7" s="458" t="s">
         <v>645</v>
       </c>
-      <c r="I7" s="456"/>
-      <c r="J7" s="456"/>
-      <c r="K7" s="456"/>
-      <c r="L7" s="457"/>
-    </row>
-    <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="458"/>
+      <c r="J7" s="458"/>
+      <c r="K7" s="458"/>
+      <c r="L7" s="459"/>
+    </row>
+    <row r="8" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="229"/>
-      <c r="B8" s="407"/>
-      <c r="C8" s="447"/>
-      <c r="D8" s="449"/>
-      <c r="E8" s="452"/>
-      <c r="F8" s="462"/>
-      <c r="G8" s="459"/>
-      <c r="H8" s="431" t="s">
+      <c r="B8" s="408"/>
+      <c r="C8" s="449"/>
+      <c r="D8" s="451"/>
+      <c r="E8" s="454"/>
+      <c r="F8" s="430"/>
+      <c r="G8" s="461"/>
+      <c r="H8" s="433" t="s">
         <v>646</v>
       </c>
-      <c r="I8" s="419" t="s">
+      <c r="I8" s="420" t="s">
         <v>647</v>
       </c>
-      <c r="J8" s="419"/>
-      <c r="K8" s="419"/>
-      <c r="L8" s="420"/>
-    </row>
-    <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="420"/>
+      <c r="K8" s="420"/>
+      <c r="L8" s="421"/>
+    </row>
+    <row r="9" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="229"/>
-      <c r="B9" s="407"/>
-      <c r="C9" s="447"/>
-      <c r="D9" s="449"/>
-      <c r="E9" s="452"/>
-      <c r="F9" s="462"/>
-      <c r="G9" s="459"/>
-      <c r="H9" s="432"/>
-      <c r="I9" s="450" t="s">
+      <c r="B9" s="408"/>
+      <c r="C9" s="449"/>
+      <c r="D9" s="451"/>
+      <c r="E9" s="454"/>
+      <c r="F9" s="430"/>
+      <c r="G9" s="461"/>
+      <c r="H9" s="434"/>
+      <c r="I9" s="452" t="s">
         <v>648</v>
       </c>
-      <c r="J9" s="429" t="s">
+      <c r="J9" s="431" t="s">
         <v>649</v>
       </c>
-      <c r="K9" s="429"/>
-      <c r="L9" s="430"/>
-    </row>
-    <row r="10" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="431"/>
+      <c r="L9" s="432"/>
+    </row>
+    <row r="10" spans="1:12" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="229"/>
-      <c r="B10" s="407"/>
-      <c r="C10" s="447"/>
-      <c r="D10" s="449"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="462"/>
-      <c r="G10" s="460"/>
-      <c r="H10" s="432"/>
-      <c r="I10" s="451"/>
+      <c r="B10" s="408"/>
+      <c r="C10" s="449"/>
+      <c r="D10" s="451"/>
+      <c r="E10" s="415"/>
+      <c r="F10" s="430"/>
+      <c r="G10" s="462"/>
+      <c r="H10" s="434"/>
+      <c r="I10" s="453"/>
       <c r="J10" s="292"/>
-      <c r="K10" s="415" t="s">
+      <c r="K10" s="416" t="s">
         <v>650</v>
       </c>
-      <c r="L10" s="433"/>
-    </row>
-    <row r="11" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="435"/>
+    </row>
+    <row r="11" spans="1:12" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="229"/>
-      <c r="B11" s="407"/>
-      <c r="C11" s="447"/>
-      <c r="D11" s="449"/>
-      <c r="E11" s="414"/>
-      <c r="F11" s="462"/>
-      <c r="G11" s="460"/>
-      <c r="H11" s="432"/>
-      <c r="I11" s="451"/>
-      <c r="J11" s="406" t="s">
+      <c r="B11" s="408"/>
+      <c r="C11" s="449"/>
+      <c r="D11" s="451"/>
+      <c r="E11" s="415"/>
+      <c r="F11" s="430"/>
+      <c r="G11" s="462"/>
+      <c r="H11" s="434"/>
+      <c r="I11" s="453"/>
+      <c r="J11" s="407" t="s">
         <v>651</v>
       </c>
-      <c r="K11" s="434"/>
-      <c r="L11" s="435"/>
-    </row>
-    <row r="12" spans="1:12" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="436"/>
+      <c r="L11" s="437"/>
+    </row>
+    <row r="12" spans="1:12" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="229"/>
-      <c r="B12" s="407"/>
-      <c r="C12" s="447"/>
-      <c r="D12" s="449"/>
-      <c r="E12" s="414"/>
-      <c r="F12" s="462"/>
-      <c r="G12" s="460"/>
-      <c r="H12" s="432"/>
-      <c r="I12" s="451"/>
-      <c r="J12" s="407"/>
-      <c r="K12" s="436"/>
-      <c r="L12" s="437"/>
-    </row>
-    <row r="13" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="408"/>
+      <c r="C12" s="449"/>
+      <c r="D12" s="451"/>
+      <c r="E12" s="415"/>
+      <c r="F12" s="430"/>
+      <c r="G12" s="462"/>
+      <c r="H12" s="434"/>
+      <c r="I12" s="453"/>
+      <c r="J12" s="408"/>
+      <c r="K12" s="438"/>
+      <c r="L12" s="439"/>
+    </row>
+    <row r="13" spans="1:12" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="229"/>
-      <c r="B13" s="407"/>
-      <c r="C13" s="447"/>
-      <c r="D13" s="449"/>
-      <c r="E13" s="414"/>
-      <c r="F13" s="462"/>
-      <c r="G13" s="460"/>
-      <c r="H13" s="432"/>
-      <c r="I13" s="451"/>
-      <c r="J13" s="407"/>
+      <c r="B13" s="408"/>
+      <c r="C13" s="449"/>
+      <c r="D13" s="451"/>
+      <c r="E13" s="415"/>
+      <c r="F13" s="430"/>
+      <c r="G13" s="462"/>
+      <c r="H13" s="434"/>
+      <c r="I13" s="453"/>
+      <c r="J13" s="408"/>
       <c r="K13" s="286"/>
       <c r="L13" s="296"/>
     </row>
-    <row r="14" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="229"/>
-      <c r="B14" s="407"/>
-      <c r="C14" s="447"/>
-      <c r="D14" s="449"/>
-      <c r="E14" s="414"/>
-      <c r="F14" s="462"/>
-      <c r="G14" s="460"/>
-      <c r="H14" s="432"/>
-      <c r="I14" s="451"/>
-      <c r="J14" s="407"/>
+      <c r="B14" s="408"/>
+      <c r="C14" s="449"/>
+      <c r="D14" s="451"/>
+      <c r="E14" s="415"/>
+      <c r="F14" s="430"/>
+      <c r="G14" s="462"/>
+      <c r="H14" s="434"/>
+      <c r="I14" s="453"/>
+      <c r="J14" s="408"/>
       <c r="K14" s="293"/>
       <c r="L14" s="297"/>
     </row>
-    <row r="15" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="229"/>
-      <c r="B15" s="407"/>
-      <c r="C15" s="447"/>
-      <c r="D15" s="449"/>
-      <c r="E15" s="414"/>
-      <c r="F15" s="462"/>
-      <c r="G15" s="460"/>
-      <c r="H15" s="432"/>
-      <c r="I15" s="451"/>
-      <c r="J15" s="407"/>
+      <c r="B15" s="408"/>
+      <c r="C15" s="449"/>
+      <c r="D15" s="451"/>
+      <c r="E15" s="415"/>
+      <c r="F15" s="430"/>
+      <c r="G15" s="462"/>
+      <c r="H15" s="434"/>
+      <c r="I15" s="453"/>
+      <c r="J15" s="408"/>
       <c r="K15" s="293"/>
       <c r="L15" s="297"/>
     </row>
-    <row r="16" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="229"/>
-      <c r="B16" s="407"/>
-      <c r="C16" s="447"/>
-      <c r="D16" s="449"/>
-      <c r="E16" s="414"/>
-      <c r="F16" s="462"/>
-      <c r="G16" s="460"/>
-      <c r="H16" s="432"/>
-      <c r="I16" s="451"/>
-      <c r="J16" s="407"/>
+      <c r="B16" s="408"/>
+      <c r="C16" s="449"/>
+      <c r="D16" s="451"/>
+      <c r="E16" s="415"/>
+      <c r="F16" s="430"/>
+      <c r="G16" s="462"/>
+      <c r="H16" s="434"/>
+      <c r="I16" s="453"/>
+      <c r="J16" s="408"/>
       <c r="K16" s="293"/>
       <c r="L16" s="297"/>
     </row>
-    <row r="17" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="295" t="s">
         <v>582</v>
       </c>
-      <c r="B17" s="407"/>
-      <c r="C17" s="447"/>
-      <c r="D17" s="449"/>
-      <c r="E17" s="414"/>
-      <c r="F17" s="462"/>
-      <c r="G17" s="460"/>
-      <c r="H17" s="432"/>
-      <c r="I17" s="451"/>
-      <c r="J17" s="407"/>
+      <c r="B17" s="408"/>
+      <c r="C17" s="449"/>
+      <c r="D17" s="451"/>
+      <c r="E17" s="415"/>
+      <c r="F17" s="430"/>
+      <c r="G17" s="462"/>
+      <c r="H17" s="434"/>
+      <c r="I17" s="453"/>
+      <c r="J17" s="408"/>
       <c r="K17" s="294" t="s">
         <v>172</v>
       </c>
@@ -25964,7 +25965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="118" t="s">
         <v>652</v>
       </c>
@@ -25980,7 +25981,7 @@
       <c r="K18" s="114"/>
       <c r="L18" s="114"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="119" t="s">
         <v>653</v>
       </c>
@@ -26010,7 +26011,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="119" t="s">
         <v>657</v>
       </c>
@@ -26040,7 +26041,7 @@
       </c>
       <c r="L20" s="114"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="114" t="s">
         <v>660</v>
       </c>
@@ -26070,7 +26071,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="114" t="s">
         <v>662</v>
       </c>
@@ -26102,7 +26103,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="114" t="s">
         <v>665</v>
       </c>
@@ -26134,7 +26135,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="114" t="s">
         <v>668</v>
       </c>
@@ -26166,7 +26167,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="114" t="s">
         <v>672</v>
       </c>
@@ -26200,7 +26201,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="114"/>
       <c r="B26" s="110"/>
       <c r="C26" s="109"/>
@@ -26214,7 +26215,7 @@
       <c r="K26" s="114"/>
       <c r="L26" s="114"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="122" t="s">
         <v>677</v>
       </c>
@@ -26230,7 +26231,7 @@
       <c r="K27" s="120"/>
       <c r="L27" s="114"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="114" t="s">
         <v>678</v>
       </c>
@@ -26262,7 +26263,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="114" t="s">
         <v>682</v>
       </c>
@@ -26294,7 +26295,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="120" t="s">
         <v>685</v>
       </c>
@@ -26326,7 +26327,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="114" t="s">
         <v>688</v>
       </c>
@@ -26360,7 +26361,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="114" t="s">
         <v>691</v>
       </c>
@@ -26396,7 +26397,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="114" t="s">
         <v>694</v>
       </c>
@@ -26428,7 +26429,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="120" t="s">
         <v>697</v>
       </c>
@@ -26462,7 +26463,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="114" t="s">
         <v>700</v>
       </c>
@@ -26496,7 +26497,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="114"/>
       <c r="B36" s="110"/>
       <c r="C36" s="110"/>
@@ -26510,7 +26511,7 @@
       <c r="K36" s="114"/>
       <c r="L36" s="123"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="125" t="s">
         <v>703</v>
       </c>
@@ -26526,7 +26527,7 @@
       <c r="K37" s="114"/>
       <c r="L37" s="114"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="126" t="s">
         <v>704</v>
       </c>
@@ -26556,7 +26557,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="126" t="s">
         <v>708</v>
       </c>
@@ -26586,7 +26587,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="126" t="s">
         <v>711</v>
       </c>
@@ -26616,7 +26617,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="126" t="s">
         <v>714</v>
       </c>
@@ -26644,7 +26645,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="114" t="s">
         <v>717</v>
       </c>
@@ -26674,7 +26675,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="126" t="s">
         <v>720</v>
       </c>
@@ -26704,7 +26705,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="126" t="s">
         <v>723</v>
       </c>
@@ -26734,7 +26735,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="114"/>
       <c r="B45" s="110"/>
       <c r="C45" s="109"/>
@@ -26748,7 +26749,7 @@
       <c r="K45" s="114"/>
       <c r="L45" s="114"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="118" t="s">
         <v>726</v>
       </c>
@@ -26764,7 +26765,7 @@
       <c r="K46" s="114"/>
       <c r="L46" s="114"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="114" t="s">
         <v>727</v>
       </c>
@@ -26796,7 +26797,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="114"/>
       <c r="B48" s="110"/>
       <c r="C48" s="109"/>
@@ -26810,7 +26811,7 @@
       <c r="K48" s="114"/>
       <c r="L48" s="114"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="118" t="s">
         <v>732</v>
       </c>
@@ -26826,7 +26827,7 @@
       <c r="K49" s="114"/>
       <c r="L49" s="114"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="114" t="s">
         <v>733</v>
       </c>
@@ -26856,7 +26857,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="120" t="s">
         <v>737</v>
       </c>
@@ -26886,7 +26887,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="114" t="s">
         <v>741</v>
       </c>
@@ -26914,7 +26915,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="114"/>
       <c r="B53" s="110"/>
       <c r="C53" s="110"/>
@@ -26928,7 +26929,7 @@
       <c r="K53" s="114"/>
       <c r="L53" s="114"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="118" t="s">
         <v>744</v>
       </c>
@@ -26944,7 +26945,7 @@
       <c r="K54" s="114"/>
       <c r="L54" s="114"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="114" t="s">
         <v>745</v>
       </c>
@@ -26976,7 +26977,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="120" t="s">
         <v>749</v>
       </c>
@@ -27008,7 +27009,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="120" t="s">
         <v>751</v>
       </c>
@@ -27040,7 +27041,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="114" t="s">
         <v>754</v>
       </c>
@@ -27072,7 +27073,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="114" t="s">
         <v>758</v>
       </c>
@@ -27104,7 +27105,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="114"/>
       <c r="B60" s="110"/>
       <c r="C60" s="109"/>
@@ -27118,7 +27119,7 @@
       <c r="K60" s="114"/>
       <c r="L60" s="114"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="118" t="s">
         <v>760</v>
       </c>
@@ -27134,7 +27135,7 @@
       <c r="K61" s="114"/>
       <c r="L61" s="114"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="114" t="s">
         <v>761</v>
       </c>
@@ -27162,7 +27163,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="114" t="s">
         <v>765</v>
       </c>
@@ -27190,7 +27191,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="114" t="s">
         <v>769</v>
       </c>
@@ -27218,7 +27219,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="114" t="s">
         <v>772</v>
       </c>
@@ -27246,7 +27247,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="127" t="s">
         <v>774</v>
       </c>
@@ -27274,6 +27275,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G7:G17"/>
     <mergeCell ref="F6:F17"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="J9:L9"/>
@@ -27290,7 +27292,6 @@
     <mergeCell ref="E6:E17"/>
     <mergeCell ref="F5:L5"/>
     <mergeCell ref="H7:L7"/>
-    <mergeCell ref="G7:G17"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -27302,15 +27303,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CE033C52B23E24BA0134B63F95C4377" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e0a787dec338c15da40d4285abe7322">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f480574-86c9-402d-af90-27417af2f968" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="36506720baf5d704a3a608d75d5ea446" ns2:_="">
     <xsd:import namespace="7f480574-86c9-402d-af90-27417af2f968"/>
@@ -27456,11 +27448,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Details xmlns="7f480574-86c9-402d-af90-27417af2f968">Dictionary</Details>
@@ -27468,7 +27465,29 @@
 </p:properties>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D403A7B-E9B4-4D7A-AA11-F27D9CC67837}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7f480574-86c9-402d-af90-27417af2f968"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09ECF84C-4153-494B-B3CB-97188678B0FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -27476,11 +27495,17 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D403A7B-E9B4-4D7A-AA11-F27D9CC67837}"/>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68738F96-C0CA-4895-A4CC-F19F9373C718}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7f480574-86c9-402d-af90-27417af2f968"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2963DD6C-CE9F-482B-9D91-AE682F3D2182}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
@@ -27488,10 +27513,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68738F96-C0CA-4895-A4CC-F19F9373C718}"/>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e58707db-cea7-4907-92d1-cf323291762b}" enabled="1" method="Standard" siteId="{e11cbe9c-f680-44b9-9d42-d705f740b888}" removed="0"/>
